--- a/data_viz.xlsx
+++ b/data_viz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fashaikh\Desktop\Thesis_main\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86F214FA-557F-4B9C-9785-BC5B00E507A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B35E68-1603-4A37-B1FA-832FF8329559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23490" yWindow="4335" windowWidth="28800" windowHeight="17235" activeTab="1" xr2:uid="{01E76D5E-2B43-456A-A89C-D3148656B865}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" activeTab="1" xr2:uid="{01E76D5E-2B43-456A-A89C-D3148656B865}"/>
   </bookViews>
   <sheets>
     <sheet name="Sentiment" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>Negative</t>
   </si>
@@ -111,16 +111,10 @@
     <t>joy</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>optimism</t>
   </si>
   <si>
     <t>sadness</t>
-  </si>
-  <si>
-    <t>surprise</t>
   </si>
 </sst>
 </file>
@@ -175,6 +169,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEE7733"/>
+      <color rgb="FFBBBBBB"/>
+      <color rgb="FFCCBB44"/>
+      <color rgb="FF4477AA"/>
+      <color rgb="FFAA3377"/>
+      <color rgb="FFEE6677"/>
+      <color rgb="FF228833"/>
+      <color rgb="FF66CCEE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -210,9 +216,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
+              <a:srgbClr val="4477AA"/>
             </a:solidFill>
           </c:spPr>
           <c:dPt>
@@ -220,7 +224,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4477AA"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -240,7 +244,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="EE7733"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -260,9 +264,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
+                <a:srgbClr val="BBBBBB"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -292,12 +294,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -307,12 +306,11 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -375,12 +373,11 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -400,10 +397,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.76848140857392822"/>
-          <c:y val="0.27170056867891512"/>
-          <c:w val="0.21485192475940504"/>
-          <c:h val="0.53993219597550302"/>
+          <c:x val="0.76824053243344581"/>
+          <c:y val="0.146395815106445"/>
+          <c:w val="0.21390232470941131"/>
+          <c:h val="0.69331911636045485"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -419,7 +416,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -516,7 +513,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4477AA"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -539,12 +536,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -710,9 +704,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
+              <a:srgbClr val="BBBBBB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -735,12 +727,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -906,7 +895,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="EE7733"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -929,12 +918,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1126,7 +1112,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1173,6 +1159,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28446981022068629"/>
+          <c:y val="0.93989301322621777"/>
+          <c:w val="0.42625833953691994"/>
+          <c:h val="4.7636216165260953E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1186,7 +1182,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1283,7 +1279,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4477AA"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1308,7 +1304,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1476,9 +1472,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
+              <a:srgbClr val="BBBBBB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1501,7 +1495,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1669,7 +1663,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="EE7733"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1692,7 +1686,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1886,7 +1880,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1933,6 +1927,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27301386236684078"/>
+          <c:y val="0.93247174225813723"/>
+          <c:w val="0.44693981493735285"/>
+          <c:h val="5.3517749860952146E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1946,7 +1950,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2025,7 +2029,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2043,7 +2047,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4477AA"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2051,6 +2055,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Emotion!$B$4:$B$18</c:f>
@@ -2108,52 +2166,52 @@
             <c:numRef>
               <c:f>Emotion!$C$4:$C$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>63.555588927300001</c:v>
+                  <c:v>0.635555889273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.8449140946</c:v>
+                  <c:v>0.59844914094599999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.248284441700001</c:v>
+                  <c:v>0.54248284441700001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.948857640699998</c:v>
+                  <c:v>0.65948857640699998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.546462099500005</c:v>
+                  <c:v>0.70546462099500007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.518760432500002</c:v>
+                  <c:v>0.56518760432500004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.312649982899998</c:v>
+                  <c:v>0.64312649982899994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.096388534699997</c:v>
+                  <c:v>0.69096388534699993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.130584192400001</c:v>
+                  <c:v>0.421305841924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.347188076199998</c:v>
+                  <c:v>0.66347188076200003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61.946399374400002</c:v>
+                  <c:v>0.61946399374400007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56.053811659200001</c:v>
+                  <c:v>0.56053811659200004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.834932090600006</c:v>
+                  <c:v>0.6883493209060001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61.633116484600002</c:v>
+                  <c:v>0.61633116484600003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71.693543948499993</c:v>
+                  <c:v>0.71693543948499994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2180,7 +2238,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="66CCEE"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2188,6 +2246,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Emotion!$B$4:$B$18</c:f>
@@ -2245,52 +2360,52 @@
             <c:numRef>
               <c:f>Emotion!$D$4:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5.1784552235000003</c:v>
+                  <c:v>5.1784552235000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4638386295999997</c:v>
+                  <c:v>8.4638386295999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8065917907999998</c:v>
+                  <c:v>4.8065917907999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0504306854000003</c:v>
+                  <c:v>5.0504306854000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4880835362999996</c:v>
+                  <c:v>4.4880835362999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8100732999</c:v>
+                  <c:v>2.8100732999000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2949792751000002</c:v>
+                  <c:v>5.2949792751000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2092364756</c:v>
+                  <c:v>4.2092364755999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.182130584199999</c:v>
+                  <c:v>0.27182130584199998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1497003687999996</c:v>
+                  <c:v>4.1497003687999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7723750622000001</c:v>
+                  <c:v>5.7723750621999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5381165918999997</c:v>
+                  <c:v>8.5381165918999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3491033056999999</c:v>
+                  <c:v>4.3491033057E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0405670798999997</c:v>
+                  <c:v>6.0405670799E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9297704882</c:v>
+                  <c:v>3.9297704881999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2317,7 +2432,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="228833"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2325,6 +2440,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Emotion!$B$4:$B$18</c:f>
@@ -2382,52 +2554,52 @@
             <c:numRef>
               <c:f>Emotion!$E$4:$E$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.4210341893000003</c:v>
+                  <c:v>7.4210341893000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8946328112999993</c:v>
+                  <c:v>8.8946328112999989E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5119447587000003</c:v>
+                  <c:v>8.5119447587000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4222680310999998</c:v>
+                  <c:v>7.4222680311000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3912987735</c:v>
+                  <c:v>6.3912987734999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9123303578000002</c:v>
+                  <c:v>5.9123303578000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5127621778</c:v>
+                  <c:v>6.5127621777999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7212001788000002</c:v>
+                  <c:v>6.7212001788000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0103092784000003</c:v>
+                  <c:v>7.010309278400001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2231100183999999</c:v>
+                  <c:v>6.2231100184E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3694462217000005</c:v>
+                  <c:v>9.3694462217000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5560538117</c:v>
+                  <c:v>8.5560538116999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7575752080999996</c:v>
+                  <c:v>6.7575752081000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1525714987000004</c:v>
+                  <c:v>6.1525714987000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.1403672922999997</c:v>
+                  <c:v>7.1403672922999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,7 +2626,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="CCBB44"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2462,6 +2634,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Emotion!$B$4:$B$18</c:f>
@@ -2519,52 +2748,52 @@
             <c:numRef>
               <c:f>Emotion!$F$4:$F$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.4426090004000001</c:v>
+                  <c:v>4.4426090004000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7590086665999998</c:v>
+                  <c:v>4.7590086665999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5762864731999997</c:v>
+                  <c:v>4.5762864731999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2810866524</c:v>
+                  <c:v>4.2810866523999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7985953816000002</c:v>
+                  <c:v>3.7985953816E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8431671384000001</c:v>
+                  <c:v>4.8431671384000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6478947861000002</c:v>
+                  <c:v>3.6478947861000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1512808200000002</c:v>
+                  <c:v>4.1512808200000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4226804124000001</c:v>
+                  <c:v>7.4226804123999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6503149969000002</c:v>
+                  <c:v>3.6503149969000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2249946683999999</c:v>
+                  <c:v>5.2249946684000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1434977577999996</c:v>
+                  <c:v>4.1434977577999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2429687925000001</c:v>
+                  <c:v>3.2429687924999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6255676935999999</c:v>
+                  <c:v>3.6255676936E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2344469517999999</c:v>
+                  <c:v>3.2344469517999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,7 +2820,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="EE6677"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2599,6 +2828,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Emotion!$B$4:$B$18</c:f>
@@ -2656,52 +2942,52 @@
             <c:numRef>
               <c:f>Emotion!$G$4:$G$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>8.5122891324999994</c:v>
+                  <c:v>8.5122891324999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5566367645000003</c:v>
+                  <c:v>7.5566367645000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2085185011000004</c:v>
+                  <c:v>9.2085185011000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4725514737000003</c:v>
+                  <c:v>6.4725514737000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2081997806000002</c:v>
+                  <c:v>5.2081997806000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8865665143000001</c:v>
+                  <c:v>4.8865665143000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9494810982999997</c:v>
+                  <c:v>7.9494810983E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6763425013999997</c:v>
+                  <c:v>5.6763425013999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2817869416000001</c:v>
+                  <c:v>8.2817869416000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4273970497999997</c:v>
+                  <c:v>7.4273970497999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9097888675999997</c:v>
+                  <c:v>6.9097888676000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4887892377000007</c:v>
+                  <c:v>9.4887892377000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0103541443999999</c:v>
+                  <c:v>7.0103541443999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9603535044000004</c:v>
+                  <c:v>8.960353504400001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.8761810409999997</c:v>
+                  <c:v>6.8761810409999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2713,7 +2999,7 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
@@ -2721,14 +3007,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>love</c:v>
+                  <c:v>optimism</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="AA3377"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2736,6 +3022,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Emotion!$B$4:$B$18</c:f>
@@ -2793,191 +3133,52 @@
             <c:numRef>
               <c:f>Emotion!$H$4:$H$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5.0681668000000001E-3</c:v>
+                  <c:v>8.0842969414999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0681668000000001E-3</c:v>
+                  <c:v>7.2677512543999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3412289500000001E-2</c:v>
+                  <c:v>0.14009352658999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3621438999999997E-3</c:v>
+                  <c:v>8.0701366905000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5614058E-3</c:v>
+                  <c:v>7.0038605638000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2948690000000003E-2</c:v>
+                  <c:v>0.18239640031899998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4539221000000004E-3</c:v>
+                  <c:v>8.5314925047999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9676275999999998E-3</c:v>
+                  <c:v>7.5011177161999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6.0137457044999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7224954000000003E-3</c:v>
+                  <c:v>8.3349339275000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.6704343499000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.79372197E-2</c:v>
+                  <c:v>0.108161434978</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8026728999999999E-3</c:v>
+                  <c:v>6.7695432208000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6715354999999999E-3</c:v>
+                  <c:v>0.102859948447</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5038802000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B10D-4FFE-B221-C688990DE2E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Emotion!$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>optimism</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Emotion!$B$4:$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>African American South</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Aging Farmlands</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Big Cities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>College Towns</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Evangelical Hubs</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Exurbs</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Graying America</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Hispanic Centers</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>LDS Enclaves</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Middle Suburbs</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Military Posts</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Native American Lands</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Rural Middle America</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Urban Suburbs</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Working Class Country</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Emotion!$I$4:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>8.0842969414999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2677512544000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.009352658999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0701366905</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0038605638</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.239640031899999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5314925047999992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.5011177161999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.0137457044999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.3349339274999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.6704343498999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.816143497800001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7695432208000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.285994844699999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7535178968</c:v>
+                  <c:v>4.7535178967999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2990,10 +3191,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Emotion!$J$3</c:f>
+              <c:f>Emotion!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3004,9 +3205,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="BBBBBB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3014,6 +3213,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Emotion!$B$4:$B$18</c:f>
@@ -3069,54 +3322,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Emotion!$J$4:$J$18</c:f>
+              <c:f>Emotion!$I$4:$I$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.7531661410999999</c:v>
+                  <c:v>2.7531661411E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1017181086000001</c:v>
+                  <c:v>3.1017181086E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5713608681000002</c:v>
+                  <c:v>4.5713608681000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6724582198000002</c:v>
+                  <c:v>2.6724582198000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5022436855999999</c:v>
+                  <c:v>2.5022436855999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7086145583999999</c:v>
+                  <c:v>6.7086145584000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6276373609000001</c:v>
+                  <c:v>3.6276373609000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5583282277000001</c:v>
+                  <c:v>2.5583282277000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9243986254000001</c:v>
+                  <c:v>1.9243986253999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7348263675000002</c:v>
+                  <c:v>3.7348263675E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0283642568000002</c:v>
+                  <c:v>3.0283642568000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3677130045000001</c:v>
+                  <c:v>2.3677130045000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9249097865999998</c:v>
+                  <c:v>2.9249097865999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2189763103</c:v>
+                  <c:v>3.2189763103000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2529216431000001</c:v>
+                  <c:v>2.2529216431000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3127,154 +3380,15 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Emotion!$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>surprise</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Emotion!$B$4:$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>African American South</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Aging Farmlands</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Big Cities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>College Towns</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Evangelical Hubs</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Exurbs</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Graying America</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Hispanic Centers</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>LDS Enclaves</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Middle Suburbs</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Military Posts</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Native American Lands</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Rural Middle America</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Urban Suburbs</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Working Class Country</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Emotion!$K$4:$K$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>4.7554687900000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1064315037</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4248217899999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4848462500000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7694773300000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7898976699999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1176488921</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.1137917899999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4364261200000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1258066994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.8197199100000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.79372197E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.10481077849999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.5181048200000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1137468582</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-B10D-4FFE-B221-C688990DE2E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="75"/>
         <c:overlap val="100"/>
         <c:axId val="1068280048"/>
         <c:axId val="1068278736"/>
@@ -3308,7 +3422,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3335,53 +3449,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1068280048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -3396,6 +3469,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19187598693020519"/>
+          <c:y val="0.94847946371568415"/>
+          <c:w val="0.56944521934758163"/>
+          <c:h val="3.8007022770802298E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3409,7 +3492,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5663,16 +5746,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5699,16 +5782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5741,10 +5824,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5776,16 +5859,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6112,8 +6195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D215A961-603E-46D6-9BC8-D099EEC7FABA}">
   <dimension ref="A3:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF63" sqref="AF63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6692,18 +6775,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300A43BD-964F-4F29-BB5E-40BFAF299ADB}">
-  <dimension ref="A3:K18"/>
+  <dimension ref="A3:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>19</v>
       </c>
@@ -6725,536 +6809,440 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>39954</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>63.555588927300001</v>
-      </c>
-      <c r="D4">
-        <v>5.1784552235000003</v>
-      </c>
-      <c r="E4">
-        <v>7.4210341893000003</v>
-      </c>
-      <c r="F4">
-        <v>4.4426090004000001</v>
-      </c>
-      <c r="G4">
-        <v>8.5122891324999994</v>
-      </c>
-      <c r="H4">
-        <v>5.0681668000000001E-3</v>
-      </c>
-      <c r="I4">
-        <v>8.0842969414999999</v>
-      </c>
-      <c r="J4">
-        <v>2.7531661410999999</v>
-      </c>
-      <c r="K4">
-        <v>4.7554687900000003E-2</v>
+      <c r="C4" s="2">
+        <v>0.635555889273</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.1784552235000003E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7.4210341893000006E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4.4426090004000003E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8.5122891324999991E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8.0842969414999993E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.7531661411E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>19731</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>59.8449140946</v>
-      </c>
-      <c r="D5">
-        <v>8.4638386295999997</v>
-      </c>
-      <c r="E5">
-        <v>8.8946328112999993</v>
-      </c>
-      <c r="F5">
-        <v>4.7590086665999998</v>
-      </c>
-      <c r="G5">
-        <v>7.5566367645000003</v>
-      </c>
-      <c r="H5">
-        <v>5.0681668000000001E-3</v>
-      </c>
-      <c r="I5">
-        <v>7.2677512544000002</v>
-      </c>
-      <c r="J5">
-        <v>3.1017181086000001</v>
-      </c>
-      <c r="K5">
-        <v>0.1064315037</v>
+      <c r="C5" s="2">
+        <v>0.59844914094599999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.4638386295999998E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8.8946328112999989E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.7590086665999995E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7.5566367645000007E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7.2677512543999997E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3.1017181086E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3004707</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>54.248284441700001</v>
-      </c>
-      <c r="D6">
-        <v>4.8065917907999998</v>
-      </c>
-      <c r="E6">
-        <v>8.5119447587000003</v>
-      </c>
-      <c r="F6">
-        <v>4.5762864731999997</v>
-      </c>
-      <c r="G6">
-        <v>9.2085185011000004</v>
-      </c>
-      <c r="H6">
-        <v>1.3412289500000001E-2</v>
-      </c>
-      <c r="I6">
-        <v>14.009352658999999</v>
-      </c>
-      <c r="J6">
-        <v>4.5713608681000002</v>
-      </c>
-      <c r="K6">
-        <v>5.4248217899999999E-2</v>
+      <c r="C6" s="2">
+        <v>0.54248284441700001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.8065917907999994E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.5119447587000005E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.5762864731999996E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9.2085185011000006E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.14009352658999999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4.5713608681000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>81498</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>65.948857640699998</v>
-      </c>
-      <c r="D7">
-        <v>5.0504306854000003</v>
-      </c>
-      <c r="E7">
-        <v>7.4222680310999998</v>
-      </c>
-      <c r="F7">
-        <v>4.2810866524</v>
-      </c>
-      <c r="G7">
-        <v>6.4725514737000003</v>
-      </c>
-      <c r="H7">
-        <v>7.3621438999999997E-3</v>
-      </c>
-      <c r="I7">
-        <v>8.0701366905</v>
-      </c>
-      <c r="J7">
-        <v>2.6724582198000002</v>
-      </c>
-      <c r="K7">
-        <v>7.4848462500000004E-2</v>
+      <c r="C7" s="2">
+        <v>0.65948857640699998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.0504306854000001E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7.4222680311000003E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.2810866523999999E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6.4725514737000001E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8.0701366905000002E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.6724582198000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>140394</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>70.546462099500005</v>
-      </c>
-      <c r="D8">
-        <v>4.4880835362999996</v>
-      </c>
-      <c r="E8">
-        <v>6.3912987735</v>
-      </c>
-      <c r="F8">
-        <v>3.7985953816000002</v>
-      </c>
-      <c r="G8">
-        <v>5.2081997806000002</v>
-      </c>
-      <c r="H8">
-        <v>3.5614058E-3</v>
-      </c>
-      <c r="I8">
-        <v>7.0038605638</v>
-      </c>
-      <c r="J8">
-        <v>2.5022436855999999</v>
-      </c>
-      <c r="K8">
-        <v>5.7694773300000002E-2</v>
+      <c r="C8" s="2">
+        <v>0.70546462099500007</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.4880835362999999E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6.3912987734999996E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.7985953816E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.2081997806000001E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7.0038605638000004E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2.5022436855999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>688950</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>56.518760432500002</v>
-      </c>
-      <c r="D9">
-        <v>2.8100732999</v>
-      </c>
-      <c r="E9">
-        <v>5.9123303578000002</v>
-      </c>
-      <c r="F9">
-        <v>4.8431671384000001</v>
-      </c>
-      <c r="G9">
-        <v>4.8865665143000001</v>
-      </c>
-      <c r="H9">
-        <v>3.2948690000000003E-2</v>
-      </c>
-      <c r="I9">
-        <v>18.239640031899999</v>
-      </c>
-      <c r="J9">
-        <v>6.7086145583999999</v>
-      </c>
-      <c r="K9">
-        <v>4.7898976699999998E-2</v>
+      <c r="C9" s="2">
+        <v>0.56518760432500004</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.8100732999000001E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5.9123303578000004E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.8431671384000001E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4.8865665143000003E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.18239640031899998</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6.7086145584000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>128348</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>64.312649982899998</v>
-      </c>
-      <c r="D10">
-        <v>5.2949792751000002</v>
-      </c>
-      <c r="E10">
-        <v>6.5127621778</v>
-      </c>
-      <c r="F10">
-        <v>3.6478947861000002</v>
-      </c>
-      <c r="G10">
-        <v>7.9494810982999997</v>
-      </c>
-      <c r="H10">
-        <v>5.4539221000000004E-3</v>
-      </c>
-      <c r="I10">
-        <v>8.5314925047999992</v>
-      </c>
-      <c r="J10">
-        <v>3.6276373609000001</v>
-      </c>
-      <c r="K10">
-        <v>0.1176488921</v>
+      <c r="C10" s="2">
+        <v>0.64312649982899994</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5.2949792751000001E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.5127621777999994E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.6478947861000005E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7.9494810983E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8.5314925047999993E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.6276373609000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60391</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>69.096388534699997</v>
-      </c>
-      <c r="D11">
-        <v>4.2092364756</v>
-      </c>
-      <c r="E11">
-        <v>6.7212001788000002</v>
-      </c>
-      <c r="F11">
-        <v>4.1512808200000002</v>
-      </c>
-      <c r="G11">
-        <v>5.6763425013999997</v>
-      </c>
-      <c r="H11">
-        <v>4.9676275999999998E-3</v>
-      </c>
-      <c r="I11">
-        <v>7.5011177161999996</v>
-      </c>
-      <c r="J11">
-        <v>2.5583282277000001</v>
-      </c>
-      <c r="K11">
-        <v>8.1137917899999995E-2</v>
+      <c r="C11" s="2">
+        <v>0.69096388534699993</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.2092364755999999E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.7212001788000006E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4.1512808200000001E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5.6763425013999995E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7.5011177161999995E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2.5583282277000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2910</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>42.130584192400001</v>
-      </c>
-      <c r="D12">
-        <v>27.182130584199999</v>
-      </c>
-      <c r="E12">
-        <v>7.0103092784000003</v>
-      </c>
-      <c r="F12">
-        <v>7.4226804124000001</v>
-      </c>
-      <c r="G12">
-        <v>8.2817869416000001</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>6.0137457044999998</v>
-      </c>
-      <c r="J12">
-        <v>1.9243986254000001</v>
-      </c>
-      <c r="K12">
-        <v>3.4364261200000003E-2</v>
+      <c r="C12" s="2">
+        <v>0.421305841924</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.27182130584199998</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7.010309278400001E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7.4226804123999998E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8.2817869416000001E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6.0137457044999995E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.9243986253999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>104128</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>66.347188076199998</v>
-      </c>
-      <c r="D13">
-        <v>4.1497003687999996</v>
-      </c>
-      <c r="E13">
-        <v>6.2231100183999999</v>
-      </c>
-      <c r="F13">
-        <v>3.6503149969000002</v>
-      </c>
-      <c r="G13">
-        <v>7.4273970497999997</v>
-      </c>
-      <c r="H13">
-        <v>6.7224954000000003E-3</v>
-      </c>
-      <c r="I13">
-        <v>8.3349339274999998</v>
-      </c>
-      <c r="J13">
-        <v>3.7348263675000002</v>
-      </c>
-      <c r="K13">
-        <v>0.1258066994</v>
+      <c r="C13" s="2">
+        <v>0.66347188076200003</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4.1497003687999995E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6.2231100184E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3.6503149969000004E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7.4273970497999997E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>8.3349339275000003E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3.7348263675E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14067</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>61.946399374400002</v>
-      </c>
-      <c r="D14">
-        <v>5.7723750622000001</v>
-      </c>
-      <c r="E14">
-        <v>9.3694462217000005</v>
-      </c>
-      <c r="F14">
-        <v>5.2249946683999999</v>
-      </c>
-      <c r="G14">
-        <v>6.9097888675999997</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>7.6704343498999998</v>
-      </c>
-      <c r="J14">
-        <v>3.0283642568000002</v>
-      </c>
-      <c r="K14">
-        <v>7.8197199100000003E-2</v>
+      <c r="C14" s="2">
+        <v>0.61946399374400007</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5.7723750621999997E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9.3694462217000007E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5.2249946684000001E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6.9097888676000002E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>7.6704343499000002E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3.0283642568000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5575</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>56.053811659200001</v>
-      </c>
-      <c r="D15">
-        <v>8.5381165918999997</v>
-      </c>
-      <c r="E15">
-        <v>8.5560538117</v>
-      </c>
-      <c r="F15">
-        <v>4.1434977577999996</v>
-      </c>
-      <c r="G15">
-        <v>9.4887892377000007</v>
-      </c>
-      <c r="H15">
-        <v>1.79372197E-2</v>
-      </c>
-      <c r="I15">
-        <v>10.816143497800001</v>
-      </c>
-      <c r="J15">
-        <v>2.3677130045000001</v>
-      </c>
-      <c r="K15">
-        <v>1.79372197E-2</v>
+      <c r="C15" s="2">
+        <v>0.56053811659200004</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8.5381165918999996E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8.5560538116999998E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4.1434977577999993E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>9.4887892377000002E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.108161434978</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2.3677130045000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>275735</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
-        <v>68.834932090600006</v>
-      </c>
-      <c r="D16">
-        <v>4.3491033056999999</v>
-      </c>
-      <c r="E16">
-        <v>6.7575752080999996</v>
-      </c>
-      <c r="F16">
-        <v>3.2429687925000001</v>
-      </c>
-      <c r="G16">
-        <v>7.0103541443999999</v>
-      </c>
-      <c r="H16">
-        <v>5.8026728999999999E-3</v>
-      </c>
-      <c r="I16">
-        <v>6.7695432208000001</v>
-      </c>
-      <c r="J16">
-        <v>2.9249097865999998</v>
-      </c>
-      <c r="K16">
-        <v>0.10481077849999999</v>
+      <c r="C16" s="2">
+        <v>0.6883493209060001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.3491033057E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6.7575752081000001E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3.2429687924999999E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7.0103541443999995E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6.7695432208000006E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2.9249097865999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>65176</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>61.633116484600002</v>
-      </c>
-      <c r="D17">
-        <v>6.0405670798999997</v>
-      </c>
-      <c r="E17">
-        <v>6.1525714987000004</v>
-      </c>
-      <c r="F17">
-        <v>3.6255676935999999</v>
-      </c>
-      <c r="G17">
-        <v>8.9603535044000004</v>
-      </c>
-      <c r="H17">
-        <v>7.6715354999999999E-3</v>
-      </c>
-      <c r="I17">
-        <v>10.285994844699999</v>
-      </c>
-      <c r="J17">
-        <v>3.2189763103</v>
-      </c>
-      <c r="K17">
-        <v>7.5181048200000003E-2</v>
+      <c r="C17" s="2">
+        <v>0.61633116484600003</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6.0405670799E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6.1525714987000005E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.6255676936E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8.960353504400001E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.102859948447</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3.2189763103000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>54507</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
-        <v>71.693543948499993</v>
-      </c>
-      <c r="D18">
-        <v>3.9297704882</v>
-      </c>
-      <c r="E18">
-        <v>7.1403672922999997</v>
-      </c>
-      <c r="F18">
-        <v>3.2344469517999999</v>
-      </c>
-      <c r="G18">
-        <v>6.8761810409999997</v>
-      </c>
-      <c r="H18">
-        <v>5.5038802000000001E-3</v>
-      </c>
-      <c r="I18">
-        <v>4.7535178968</v>
-      </c>
-      <c r="J18">
-        <v>2.2529216431000001</v>
-      </c>
-      <c r="K18">
-        <v>0.1137468582</v>
+      <c r="C18" s="2">
+        <v>0.71693543948499994</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3.9297704881999997E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.1403672922999997E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3.2344469517999998E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6.8761810409999999E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.7535178967999997E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2.2529216431000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data_viz.xlsx
+++ b/data_viz.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fashaikh\Desktop\Thesis_main\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B35E68-1603-4A37-B1FA-832FF8329559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BBC7E2-0489-445F-BF86-9BB701AF0399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" activeTab="1" xr2:uid="{01E76D5E-2B43-456A-A89C-D3148656B865}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" activeTab="2" xr2:uid="{01E76D5E-2B43-456A-A89C-D3148656B865}"/>
   </bookViews>
   <sheets>
     <sheet name="Sentiment" sheetId="1" r:id="rId1"/>
     <sheet name="Emotion" sheetId="2" r:id="rId2"/>
+    <sheet name="N-grams" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="307">
   <si>
     <t>Negative</t>
   </si>
@@ -115,13 +116,856 @@
   </si>
   <si>
     <t>sadness</t>
+  </si>
+  <si>
+    <t>blm</t>
+  </si>
+  <si>
+    <t>blacklivesmatter</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>protest</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>matter</t>
+  </si>
+  <si>
+    <t>antifa</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>racist</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>peace vidasnegrasimportam</t>
+  </si>
+  <si>
+    <t>white supremacist</t>
+  </si>
+  <si>
+    <t>george floyd</t>
+  </si>
+  <si>
+    <t>police brutality</t>
+  </si>
+  <si>
+    <t>police officer</t>
+  </si>
+  <si>
+    <t>year old</t>
+  </si>
+  <si>
+    <t>peaceful protest</t>
+  </si>
+  <si>
+    <t>trump supporter</t>
+  </si>
+  <si>
+    <t>white supremacy</t>
+  </si>
+  <si>
+    <t>wear mask</t>
+  </si>
+  <si>
+    <t>breonna taylor</t>
+  </si>
+  <si>
+    <t>oh wait</t>
+  </si>
+  <si>
+    <t>terrorist organization</t>
+  </si>
+  <si>
+    <t>take knee</t>
+  </si>
+  <si>
+    <t>wear shirt</t>
+  </si>
+  <si>
+    <t>african american</t>
+  </si>
+  <si>
+    <t>social medium</t>
+  </si>
+  <si>
+    <t>law enforcement</t>
+  </si>
+  <si>
+    <t>proud boy</t>
+  </si>
+  <si>
+    <t>domestic terrorist</t>
+  </si>
+  <si>
+    <t>riot loot</t>
+  </si>
+  <si>
+    <t>systemic racism</t>
+  </si>
+  <si>
+    <t>tear gas</t>
+  </si>
+  <si>
+    <t>terrorist group</t>
+  </si>
+  <si>
+    <t>peaceful protester</t>
+  </si>
+  <si>
+    <t>white privilege</t>
+  </si>
+  <si>
+    <t>right wing</t>
+  </si>
+  <si>
+    <t>human right</t>
+  </si>
+  <si>
+    <t>defund police</t>
+  </si>
+  <si>
+    <t>year ago</t>
+  </si>
+  <si>
+    <t>kill police</t>
+  </si>
+  <si>
+    <t>white man</t>
+  </si>
+  <si>
+    <t>last night</t>
+  </si>
+  <si>
+    <t>cop kill</t>
+  </si>
+  <si>
+    <t>protest riot</t>
+  </si>
+  <si>
+    <t>oh yeah</t>
+  </si>
+  <si>
+    <t>sign petition</t>
+  </si>
+  <si>
+    <t>antifa riot</t>
+  </si>
+  <si>
+    <t>antifa terrorist</t>
+  </si>
+  <si>
+    <t>part problem</t>
+  </si>
+  <si>
+    <t>marxist organization</t>
+  </si>
+  <si>
+    <t>every day</t>
+  </si>
+  <si>
+    <t>joe biden</t>
+  </si>
+  <si>
+    <t>white person</t>
+  </si>
+  <si>
+    <t>burn loot</t>
+  </si>
+  <si>
+    <t>burn city</t>
+  </si>
+  <si>
+    <t>hate group</t>
+  </si>
+  <si>
+    <t>donald trump</t>
+  </si>
+  <si>
+    <t>law order</t>
+  </si>
+  <si>
+    <t>national anthem</t>
+  </si>
+  <si>
+    <t>stay safe</t>
+  </si>
+  <si>
+    <t>use platform</t>
+  </si>
+  <si>
+    <t>use voice</t>
+  </si>
+  <si>
+    <t>god bless</t>
+  </si>
+  <si>
+    <t>would love</t>
+  </si>
+  <si>
+    <t>brother sister</t>
+  </si>
+  <si>
+    <t>pride month</t>
+  </si>
+  <si>
+    <t>good morning</t>
+  </si>
+  <si>
+    <t>please share</t>
+  </si>
+  <si>
+    <t>link bio</t>
+  </si>
+  <si>
+    <t>history month</t>
+  </si>
+  <si>
+    <t>come together</t>
+  </si>
+  <si>
+    <t>john lewis</t>
+  </si>
+  <si>
+    <t>civil right</t>
+  </si>
+  <si>
+    <t>stand solidarity</t>
+  </si>
+  <si>
+    <t>look forward</t>
+  </si>
+  <si>
+    <t>please help</t>
+  </si>
+  <si>
+    <t>keep fight</t>
+  </si>
+  <si>
+    <t>spread awareness</t>
+  </si>
+  <si>
+    <t>own business</t>
+  </si>
+  <si>
+    <t>please sign</t>
+  </si>
+  <si>
+    <t>thank much</t>
+  </si>
+  <si>
+    <t>well do</t>
+  </si>
+  <si>
+    <t>way help</t>
+  </si>
+  <si>
+    <t>happy pride</t>
+  </si>
+  <si>
+    <t>please donate</t>
+  </si>
+  <si>
+    <t>cannot wait</t>
+  </si>
+  <si>
+    <t>protest today</t>
+  </si>
+  <si>
+    <t>good cause</t>
+  </si>
+  <si>
+    <t>stand together</t>
+  </si>
+  <si>
+    <t>please stay</t>
+  </si>
+  <si>
+    <t>take care</t>
+  </si>
+  <si>
+    <t>change world</t>
+  </si>
+  <si>
+    <t>spread word</t>
+  </si>
+  <si>
+    <t>wear ask</t>
+  </si>
+  <si>
+    <t>petition via</t>
+  </si>
+  <si>
+    <t>mlk grenfelltower</t>
+  </si>
+  <si>
+    <t>holocaustmemorialday mlk</t>
+  </si>
+  <si>
+    <t>jonathan isaac</t>
+  </si>
+  <si>
+    <t>new york</t>
+  </si>
+  <si>
+    <t>alllivesmatters icantbreathe</t>
+  </si>
+  <si>
+    <t>grenfelltower bidenharris</t>
+  </si>
+  <si>
+    <t>stand national</t>
+  </si>
+  <si>
+    <t>ahmaud arbery</t>
+  </si>
+  <si>
+    <t>iftheshoefits metoo</t>
+  </si>
+  <si>
+    <t>trayvon martin</t>
+  </si>
+  <si>
+    <t>metoo alllivesmatters</t>
+  </si>
+  <si>
+    <t>tamir rice</t>
+  </si>
+  <si>
+    <t>eric garner</t>
+  </si>
+  <si>
+    <t>sandra bland</t>
+  </si>
+  <si>
+    <t>woman gopwomen</t>
+  </si>
+  <si>
+    <t>indie dems</t>
+  </si>
+  <si>
+    <t>kneel wear</t>
+  </si>
+  <si>
+    <t>student millennials</t>
+  </si>
+  <si>
+    <t>anthem wear</t>
+  </si>
+  <si>
+    <t>gopwomen indie</t>
+  </si>
+  <si>
+    <t>vet lgbtq</t>
+  </si>
+  <si>
+    <t>anti racism</t>
+  </si>
+  <si>
+    <t>philando castile</t>
+  </si>
+  <si>
+    <t>ding ding</t>
+  </si>
+  <si>
+    <t>strongertogether follow resister</t>
+  </si>
+  <si>
+    <t>please stay safe</t>
+  </si>
+  <si>
+    <t>martin luther king</t>
+  </si>
+  <si>
+    <t>please sign petition</t>
+  </si>
+  <si>
+    <t>sign petition via</t>
+  </si>
+  <si>
+    <t>big small platform</t>
+  </si>
+  <si>
+    <t>small platform use</t>
+  </si>
+  <si>
+    <t>happy pride month</t>
+  </si>
+  <si>
+    <t>use voice good</t>
+  </si>
+  <si>
+    <t>scroll big small</t>
+  </si>
+  <si>
+    <t>reply quote tweet</t>
+  </si>
+  <si>
+    <t>stop reply quote</t>
+  </si>
+  <si>
+    <t>platform use voice</t>
+  </si>
+  <si>
+    <t>beg stop reply</t>
+  </si>
+  <si>
+    <t>voice good cause</t>
+  </si>
+  <si>
+    <t>good cause beg</t>
+  </si>
+  <si>
+    <t>cause beg stop</t>
+  </si>
+  <si>
+    <t>sign petition donate</t>
+  </si>
+  <si>
+    <t>luther king jr</t>
+  </si>
+  <si>
+    <t>stay safe everyone</t>
+  </si>
+  <si>
+    <t>stay safe keep</t>
+  </si>
+  <si>
+    <t>strong stay safe</t>
+  </si>
+  <si>
+    <t>noh resist fbr</t>
+  </si>
+  <si>
+    <t>everyone stay safe</t>
+  </si>
+  <si>
+    <t>stay bless safe</t>
+  </si>
+  <si>
+    <t>mass stay bless</t>
+  </si>
+  <si>
+    <t>bless safe covid</t>
+  </si>
+  <si>
+    <t>music mass stay</t>
+  </si>
+  <si>
+    <t>wonderful music mass</t>
+  </si>
+  <si>
+    <t>tweetuk weekdayuk weekenduk</t>
+  </si>
+  <si>
+    <t>noh resistance fbr</t>
+  </si>
+  <si>
+    <t>resistance fbr strongertogether</t>
+  </si>
+  <si>
+    <t>right side history</t>
+  </si>
+  <si>
+    <t>thank use platform</t>
+  </si>
+  <si>
+    <t>lgbtq noh resist</t>
+  </si>
+  <si>
+    <t>fight good fight</t>
+  </si>
+  <si>
+    <t>ding ding ding</t>
+  </si>
+  <si>
+    <t>music love peace</t>
+  </si>
+  <si>
+    <t>peace youtube spotify</t>
+  </si>
+  <si>
+    <t>love peace youtube</t>
+  </si>
+  <si>
+    <t>resist fbr grassroots</t>
+  </si>
+  <si>
+    <t>safe keep keep</t>
+  </si>
+  <si>
+    <t>music followback love</t>
+  </si>
+  <si>
+    <t>wednesdaywisdom wednesdaythoughts wednesdaymotivation</t>
+  </si>
+  <si>
+    <t>stand national anthem</t>
+  </si>
+  <si>
+    <t>wednesdaythoughts wednesdaymotivation finepeoplefromkenya</t>
+  </si>
+  <si>
+    <t>wednesdayvibes wednesdaywisdom wednesdaythoughts</t>
+  </si>
+  <si>
+    <t>wcw wednesdayvibes wednesdaywisdom</t>
+  </si>
+  <si>
+    <t>step right direction</t>
+  </si>
+  <si>
+    <t>minnesota freedom fund</t>
+  </si>
+  <si>
+    <t>please follow back</t>
+  </si>
+  <si>
+    <t>follow please follow</t>
+  </si>
+  <si>
+    <t>trumpgenocide trumpliesamericansdie fucktrump</t>
+  </si>
+  <si>
+    <t>trumpliesamericansdie fucktrump savethepostalservice</t>
+  </si>
+  <si>
+    <t>savethepostalservice trumpvirus trumpdeathtollk</t>
+  </si>
+  <si>
+    <t>fucktrump savethepostalservice trumpvirus</t>
+  </si>
+  <si>
+    <t>biden resistance voteblue</t>
+  </si>
+  <si>
+    <t>takeaknee benedictdonald stlcards</t>
+  </si>
+  <si>
+    <t>voteblue follow please</t>
+  </si>
+  <si>
+    <t>resistance voteblue follow</t>
+  </si>
+  <si>
+    <t>trumpdeathtollk takeaknee benedictdonald</t>
+  </si>
+  <si>
+    <t>benedictdonald stlcards nonazis</t>
+  </si>
+  <si>
+    <t>fuckercarlson biden resistance</t>
+  </si>
+  <si>
+    <t>georgefloydwasmurdered fuckercarlson biden</t>
+  </si>
+  <si>
+    <t>nonazis georgefloydwasmurdered fuckercarlson</t>
+  </si>
+  <si>
+    <t>trumpvirus trumpdeathtollk takeaknee</t>
+  </si>
+  <si>
+    <t>stlcards nonazis georgefloydwasmurdered</t>
+  </si>
+  <si>
+    <t>holocaustmemorialday mlk grenfelltower</t>
+  </si>
+  <si>
+    <t>burn loot murder</t>
+  </si>
+  <si>
+    <t>kneel wear shirt</t>
+  </si>
+  <si>
+    <t>murder george floyd</t>
+  </si>
+  <si>
+    <t>mlk grenfelltower bidenharris</t>
+  </si>
+  <si>
+    <t>turn blind eye</t>
+  </si>
+  <si>
+    <t>could care less</t>
+  </si>
+  <si>
+    <t>domestic terrorist organization</t>
+  </si>
+  <si>
+    <t>peace peace peace</t>
+  </si>
+  <si>
+    <t>kill breonna taylor</t>
+  </si>
+  <si>
+    <t>protest police brutality</t>
+  </si>
+  <si>
+    <t>year old boy</t>
+  </si>
+  <si>
+    <t>george floyd murder</t>
+  </si>
+  <si>
+    <t>antifa domestic terrorist</t>
+  </si>
+  <si>
+    <t>kill george floyd</t>
+  </si>
+  <si>
+    <t>white supremacist group</t>
+  </si>
+  <si>
+    <t>terrorist group antifa</t>
+  </si>
+  <si>
+    <t>arrest cop kill</t>
+  </si>
+  <si>
+    <t>kneel national anthem</t>
+  </si>
+  <si>
+    <t>domestic terrorist group</t>
+  </si>
+  <si>
+    <t>home lost business</t>
+  </si>
+  <si>
+    <t>deny coverage sleazebags</t>
+  </si>
+  <si>
+    <t>lose home lost</t>
+  </si>
+  <si>
+    <t>sleazebags dupe cna</t>
+  </si>
+  <si>
+    <t>dupe cna insurance</t>
+  </si>
+  <si>
+    <t>scam lose home</t>
+  </si>
+  <si>
+    <t>cnainsurance affiliate keep</t>
+  </si>
+  <si>
+    <t>affiliate keep deny</t>
+  </si>
+  <si>
+    <t>disabled file bankruptcy</t>
+  </si>
+  <si>
+    <t>coverage sleazebags dupe</t>
+  </si>
+  <si>
+    <t>retweet reply tag</t>
+  </si>
+  <si>
+    <t>reply raisethedegree tag</t>
+  </si>
+  <si>
+    <t>retweet reply raisethedegree</t>
+  </si>
+  <si>
+    <t>ding pennstate justiceforall</t>
+  </si>
+  <si>
+    <t>ding ding pennstate</t>
+  </si>
+  <si>
+    <t>anthem wear shirt</t>
+  </si>
+  <si>
+    <t>metoo alllivesmatters icantbreathe</t>
+  </si>
+  <si>
+    <t>iftheshoefits metoo alllivesmatters</t>
+  </si>
+  <si>
+    <t>woman gopwomen indie</t>
+  </si>
+  <si>
+    <t>gopwomen indie dems</t>
+  </si>
+  <si>
+    <t>breonna taylor ahmaud</t>
+  </si>
+  <si>
+    <t>taylor ahmaud arbery</t>
+  </si>
+  <si>
+    <t>jonathan isaac stand</t>
+  </si>
+  <si>
+    <t>grant eric garner</t>
+  </si>
+  <si>
+    <t>oscar grant eric</t>
+  </si>
+  <si>
+    <t>rice oscar grant</t>
+  </si>
+  <si>
+    <t>philando castile samuel</t>
+  </si>
+  <si>
+    <t>castile samuel dubose</t>
+  </si>
+  <si>
+    <t>tamir rice oscar</t>
+  </si>
+  <si>
+    <t>eric garner philando</t>
+  </si>
+  <si>
+    <t>garner philando castile</t>
+  </si>
+  <si>
+    <t>dubose sandra bland</t>
+  </si>
+  <si>
+    <t>arbery tamir rice</t>
+  </si>
+  <si>
+    <t>ahmaud arbery tamir</t>
+  </si>
+  <si>
+    <t>bland walter scott</t>
+  </si>
+  <si>
+    <t>sandra bland walter</t>
+  </si>
+  <si>
+    <t>samuel dubose sandra</t>
+  </si>
+  <si>
+    <t>martin breonna taylor</t>
+  </si>
+  <si>
+    <t>trayvon martin breonna</t>
+  </si>
+  <si>
+    <t>walter scott terrence</t>
+  </si>
+  <si>
+    <t>floyd trayvon martin</t>
+  </si>
+  <si>
+    <t>george floyd trayvon</t>
+  </si>
+  <si>
+    <t>scott terrence crutcher</t>
+  </si>
+  <si>
+    <t>berniesanders itsoktobewhite alllivesmatter</t>
+  </si>
+  <si>
+    <t>hillaryclinton berniesanders itsoktobewhite</t>
+  </si>
+  <si>
+    <t>trump islam hillaryclinton</t>
+  </si>
+  <si>
+    <t>islam hillaryclinton berniesanders</t>
+  </si>
+  <si>
+    <t>feminism cnn trump</t>
+  </si>
+  <si>
+    <t>cnn trump islam</t>
+  </si>
+  <si>
+    <t>isaac stand national</t>
+  </si>
+  <si>
+    <t>indie dems student</t>
+  </si>
+  <si>
+    <t>dems student millennials</t>
+  </si>
+  <si>
+    <t>national anthem wear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +979,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,10 +1008,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3552,6 +4405,1041 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-206B-44D7-97FB-469FE9562E84}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'N-grams'!$N$86:$N$111</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>national anthem</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>oh wait</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>law enforcement</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>year ago</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>last night</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>systemic racism</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stay safe</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>white supremacy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>african american</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>take knee</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>trump supporter</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>new york</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>oh yeah</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>breonna taylor</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>police officer</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>white supremacist</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>peaceful protest</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>sign petition</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>year old</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>alllivesmatters icantbreathe</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>peace vidasnegrasimportam</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>police brutality</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>ding ding</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>white privilege</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>terrorist organization</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>george floyd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'N-grams'!$O$86:$O$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>40151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62626</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73698</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82525</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86215</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110581</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>117245</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>154760</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>241221</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>256834</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>274640</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>288900</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>295780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-206B-44D7-97FB-469FE9562E84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1062264680"/>
+        <c:axId val="1062267960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1062264680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1062267960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1062267960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1062264680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-34B6-4F81-B903-AA38A62692F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-34B6-4F81-B903-AA38A62692F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-34B6-4F81-B903-AA38A62692F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-34B6-4F81-B903-AA38A62692F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-34B6-4F81-B903-AA38A62692F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-34B6-4F81-B903-AA38A62692F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'N-grams'!$AL$122:$AL$141</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>domestic terrorist organization</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>terrorist group antifa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>biden resistance voteblue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>breonna taylor ahmaud</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fucktrump savethepostalservice trumpvirus</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>please stay safe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>follow please follow</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>please follow back</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>arbery tamir rice</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>metoo alllivesmatters icantbreathe</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ding ding pennstate</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>burn loot murder</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>retweet reply raisethedegree</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>sign petition via</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ding pennstate justiceforall</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>reply raisethedegree tag</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>protest police brutality</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>retweet reply tag</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>murder george floyd</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ding ding ding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'N-grams'!$AM$122:$AM$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>43212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50237</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50876</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51580</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56603</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59758</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62718</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74061</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131270</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>171406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34B6-4F81-B903-AA38A62692F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1030179512"/>
+        <c:axId val="1030178200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1030179512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030178200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1030178200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030179512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="30000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3712,6 +5600,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -5239,6 +7207,1016 @@
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5888,6 +8866,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB447EC0-C305-9B7B-E227-A4B51A9E5A0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE626EE4-CDF5-5E8E-B00A-DA91EB66806D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6193,10 +9248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D215A961-603E-46D6-9BC8-D099EEC7FABA}">
-  <dimension ref="A3:E67"/>
+  <dimension ref="A3:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF63" sqref="AF63"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6497,6 +9552,12 @@
         <v>9.3293700143000008E-2</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>SUM(A24:A38)</f>
+        <v>16953748</v>
+      </c>
+    </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
@@ -6764,6 +9825,12 @@
       </c>
       <c r="E67" s="2">
         <v>8.5915570477000006E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>SUM(A53:A67)</f>
+        <v>4686071</v>
       </c>
     </row>
   </sheetData>
@@ -6777,8 +9844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300A43BD-964F-4F29-BB5E-40BFAF299ADB}">
   <dimension ref="A3:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7250,4 +10317,3829 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061A16EF-80B8-4C4C-A4FF-02D0D991B409}">
+  <dimension ref="C2:AM151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N46" workbookViewId="0">
+      <selection activeCell="AC95" sqref="AC95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="60.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2">
+        <v>5394</v>
+      </c>
+      <c r="N2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2">
+        <v>5489</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ2">
+        <v>9286</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM2">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="3" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3">
+        <v>5403</v>
+      </c>
+      <c r="N3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3">
+        <v>5518</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ3">
+        <v>6003</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM3">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="4" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4">
+        <v>5489</v>
+      </c>
+      <c r="N4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4">
+        <v>5614</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ4">
+        <v>4585</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM4">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="5" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5">
+        <v>5518</v>
+      </c>
+      <c r="N5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5">
+        <v>5705</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ5">
+        <v>4154</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM5">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="6" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6">
+        <v>5614</v>
+      </c>
+      <c r="N6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6">
+        <v>5937</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ6">
+        <v>3931</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM6">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="7" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7">
+        <v>5705</v>
+      </c>
+      <c r="N7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7">
+        <v>5961</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ7">
+        <v>3892</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM7">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="8" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8">
+        <v>5937</v>
+      </c>
+      <c r="N8" t="s">
+        <v>135</v>
+      </c>
+      <c r="O8">
+        <v>6043</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ8">
+        <v>3813</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM8">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="9" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9">
+        <v>5961</v>
+      </c>
+      <c r="N9" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9">
+        <v>6198</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ9">
+        <v>3772</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM9">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="10" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10">
+        <v>6043</v>
+      </c>
+      <c r="N10" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10">
+        <v>6551</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ10">
+        <v>3724</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM10">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="11" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11">
+        <v>6094</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11">
+        <v>6603</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ11">
+        <v>3633</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM11">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="12" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12">
+        <v>6198</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12">
+        <v>6676</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ12">
+        <v>3629</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM12">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="13" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13">
+        <v>6330</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13">
+        <v>7214</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ13">
+        <v>3625</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM13">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="14" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14">
+        <v>6551</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14">
+        <v>7280</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ14">
+        <v>3551</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM14">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="15" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15">
+        <v>6603</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15">
+        <v>7356</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ15">
+        <v>3546</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM15">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="16" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16">
+        <v>6676</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16">
+        <v>7453</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ16">
+        <v>3512</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM16">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="17" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17">
+        <v>7161</v>
+      </c>
+      <c r="N17" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17">
+        <v>7647</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ17">
+        <v>3506</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM17">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="18" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18">
+        <v>7214</v>
+      </c>
+      <c r="N18" t="s">
+        <v>123</v>
+      </c>
+      <c r="O18">
+        <v>7696</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ18">
+        <v>3506</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM18">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="19" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19">
+        <v>7280</v>
+      </c>
+      <c r="N19" t="s">
+        <v>122</v>
+      </c>
+      <c r="O19">
+        <v>7715</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ19">
+        <v>3289</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM19">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="20" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20">
+        <v>7356</v>
+      </c>
+      <c r="N20" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20">
+        <v>8078</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ20">
+        <v>3233</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM20">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="21" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21">
+        <v>7365</v>
+      </c>
+      <c r="N21" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21">
+        <v>8330</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ21">
+        <v>3109</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM21">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="22" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22">
+        <v>7453</v>
+      </c>
+      <c r="N22" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22">
+        <v>8483</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ22">
+        <v>3054</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM22">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="23" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23">
+        <v>7508</v>
+      </c>
+      <c r="N23" t="s">
+        <v>117</v>
+      </c>
+      <c r="O23">
+        <v>8504</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ23">
+        <v>2949</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM23">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="24" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24">
+        <v>7617</v>
+      </c>
+      <c r="N24" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24">
+        <v>8618</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ24">
+        <v>2900</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM24">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="25" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25">
+        <v>7647</v>
+      </c>
+      <c r="N25" t="s">
+        <v>115</v>
+      </c>
+      <c r="O25">
+        <v>8768</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ25">
+        <v>2850</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM25">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="26" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26">
+        <v>7696</v>
+      </c>
+      <c r="N26" t="s">
+        <v>114</v>
+      </c>
+      <c r="O26">
+        <v>8992</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ26">
+        <v>2848</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM26">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="27" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27">
+        <v>7715</v>
+      </c>
+      <c r="N27" t="s">
+        <v>165</v>
+      </c>
+      <c r="O27">
+        <v>9084</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ27">
+        <v>2843</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM27">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28">
+        <v>7810</v>
+      </c>
+      <c r="N28" t="s">
+        <v>113</v>
+      </c>
+      <c r="O28">
+        <v>9238</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ28">
+        <v>2843</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM28">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="29" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29">
+        <v>7946</v>
+      </c>
+      <c r="N29" t="s">
+        <v>164</v>
+      </c>
+      <c r="O29">
+        <v>9341</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ29">
+        <v>2843</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM29">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="30" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30">
+        <v>8078</v>
+      </c>
+      <c r="N30" t="s">
+        <v>112</v>
+      </c>
+      <c r="O30">
+        <v>9469</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ30">
+        <v>2843</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM30">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="31" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s">
+        <v>120</v>
+      </c>
+      <c r="J31">
+        <v>8284</v>
+      </c>
+      <c r="N31" t="s">
+        <v>111</v>
+      </c>
+      <c r="O31">
+        <v>9490</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ31">
+        <v>2749</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM31">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="32" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32">
+        <v>8330</v>
+      </c>
+      <c r="N32" t="s">
+        <v>163</v>
+      </c>
+      <c r="O32">
+        <v>9508</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ32">
+        <v>2735</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM32">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="33" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33">
+        <v>8443</v>
+      </c>
+      <c r="N33" t="s">
+        <v>162</v>
+      </c>
+      <c r="O33">
+        <v>9524</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ33">
+        <v>2628</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM33">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="34" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J34">
+        <v>8483</v>
+      </c>
+      <c r="N34" t="s">
+        <v>161</v>
+      </c>
+      <c r="O34">
+        <v>9559</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ34">
+        <v>2576</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM34">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="35" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35">
+        <v>8504</v>
+      </c>
+      <c r="N35" t="s">
+        <v>160</v>
+      </c>
+      <c r="O35">
+        <v>9646</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ35">
+        <v>2570</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM35">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="36" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J36">
+        <v>8618</v>
+      </c>
+      <c r="N36" t="s">
+        <v>159</v>
+      </c>
+      <c r="O36">
+        <v>9657</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ36">
+        <v>2464</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM36">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="37" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>98</v>
+      </c>
+      <c r="J37">
+        <v>8711</v>
+      </c>
+      <c r="N37" t="s">
+        <v>158</v>
+      </c>
+      <c r="O37">
+        <v>9702</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ37">
+        <v>2419</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM37">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="38" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>115</v>
+      </c>
+      <c r="J38">
+        <v>8768</v>
+      </c>
+      <c r="N38" t="s">
+        <v>157</v>
+      </c>
+      <c r="O38">
+        <v>9754</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ38">
+        <v>2419</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM38">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="39" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>114</v>
+      </c>
+      <c r="J39">
+        <v>8992</v>
+      </c>
+      <c r="N39" t="s">
+        <v>156</v>
+      </c>
+      <c r="O39">
+        <v>9758</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ39">
+        <v>2413</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM39">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="40" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>165</v>
+      </c>
+      <c r="J40">
+        <v>9084</v>
+      </c>
+      <c r="N40" t="s">
+        <v>155</v>
+      </c>
+      <c r="O40">
+        <v>9812</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ40">
+        <v>2390</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM40">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="41" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41">
+        <v>9142</v>
+      </c>
+      <c r="N41" t="s">
+        <v>154</v>
+      </c>
+      <c r="O41">
+        <v>9984</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ41">
+        <v>2390</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM41">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="42" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>113</v>
+      </c>
+      <c r="J42">
+        <v>9238</v>
+      </c>
+      <c r="N42" t="s">
+        <v>153</v>
+      </c>
+      <c r="O42">
+        <v>10090</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ42">
+        <v>2361</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM42">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="43" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43">
+        <v>9252</v>
+      </c>
+      <c r="N43" t="s">
+        <v>110</v>
+      </c>
+      <c r="O43">
+        <v>10250</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ43">
+        <v>2274</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM43">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="44" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44">
+        <v>9279</v>
+      </c>
+      <c r="N44" t="s">
+        <v>152</v>
+      </c>
+      <c r="O44">
+        <v>11386</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ44">
+        <v>2267</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM44">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="45" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>86</v>
+      </c>
+      <c r="J45">
+        <v>9285</v>
+      </c>
+      <c r="N45" t="s">
+        <v>151</v>
+      </c>
+      <c r="O45">
+        <v>11579</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ45">
+        <v>2237</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM45">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="46" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46">
+        <v>9338</v>
+      </c>
+      <c r="N46" t="s">
+        <v>150</v>
+      </c>
+      <c r="O46">
+        <v>11593</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ46">
+        <v>2226</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM46">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="47" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>164</v>
+      </c>
+      <c r="J47">
+        <v>9341</v>
+      </c>
+      <c r="N47" t="s">
+        <v>149</v>
+      </c>
+      <c r="O47">
+        <v>12865</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ47">
+        <v>2220</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM47">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="48" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48">
+        <v>9446</v>
+      </c>
+      <c r="N48" t="s">
+        <v>148</v>
+      </c>
+      <c r="O48">
+        <v>13764</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ48">
+        <v>2220</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM48">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="49" spans="9:39" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>112</v>
+      </c>
+      <c r="J49">
+        <v>9469</v>
+      </c>
+      <c r="N49" t="s">
+        <v>147</v>
+      </c>
+      <c r="O49">
+        <v>15476</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ49">
+        <v>2220</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM49">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="50" spans="9:39" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>111</v>
+      </c>
+      <c r="J50">
+        <v>9490</v>
+      </c>
+      <c r="N50" t="s">
+        <v>146</v>
+      </c>
+      <c r="O50">
+        <v>15675</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ50">
+        <v>2199</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM50">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="51" spans="9:39" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>163</v>
+      </c>
+      <c r="J51">
+        <v>9508</v>
+      </c>
+      <c r="N51" t="s">
+        <v>145</v>
+      </c>
+      <c r="O51">
+        <v>17457</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ51">
+        <v>2162</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM51">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="52" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>162</v>
+      </c>
+      <c r="J52">
+        <v>9524</v>
+      </c>
+      <c r="N52" t="s">
+        <v>125</v>
+      </c>
+      <c r="O52">
+        <v>18108</v>
+      </c>
+      <c r="AH52" s="3"/>
+      <c r="AI52" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ52">
+        <v>14273</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>260</v>
+      </c>
+      <c r="AM52">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="53" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>161</v>
+      </c>
+      <c r="J53">
+        <v>9559</v>
+      </c>
+      <c r="N53" t="s">
+        <v>120</v>
+      </c>
+      <c r="O53">
+        <v>19418</v>
+      </c>
+      <c r="AH53" s="3"/>
+      <c r="AI53" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ53">
+        <v>14271</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM53">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="54" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>160</v>
+      </c>
+      <c r="J54">
+        <v>9646</v>
+      </c>
+      <c r="N54" t="s">
+        <v>144</v>
+      </c>
+      <c r="O54">
+        <v>19456</v>
+      </c>
+      <c r="AH54" s="3"/>
+      <c r="AI54" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ54">
+        <v>14183</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>262</v>
+      </c>
+      <c r="AM54">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="55" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55">
+        <v>9649</v>
+      </c>
+      <c r="N55" t="s">
+        <v>143</v>
+      </c>
+      <c r="O55">
+        <v>19512</v>
+      </c>
+      <c r="AH55" s="3"/>
+      <c r="AI55" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ55">
+        <v>14061</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM55">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="56" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>159</v>
+      </c>
+      <c r="J56">
+        <v>9657</v>
+      </c>
+      <c r="N56" t="s">
+        <v>105</v>
+      </c>
+      <c r="O56">
+        <v>19560</v>
+      </c>
+      <c r="AH56" s="3"/>
+      <c r="AI56" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ56">
+        <v>14061</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM56">
+        <v>4979</v>
+      </c>
+    </row>
+    <row r="57" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>158</v>
+      </c>
+      <c r="J57">
+        <v>9702</v>
+      </c>
+      <c r="N57" t="s">
+        <v>104</v>
+      </c>
+      <c r="O57">
+        <v>19822</v>
+      </c>
+      <c r="AH57" s="3"/>
+      <c r="AI57" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ57">
+        <v>14061</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM57">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="58" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>157</v>
+      </c>
+      <c r="J58">
+        <v>9754</v>
+      </c>
+      <c r="N58" t="s">
+        <v>103</v>
+      </c>
+      <c r="O58">
+        <v>19966</v>
+      </c>
+      <c r="AH58" s="3"/>
+      <c r="AI58" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ58">
+        <v>14060</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM58">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="59" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>156</v>
+      </c>
+      <c r="J59">
+        <v>9758</v>
+      </c>
+      <c r="N59" t="s">
+        <v>127</v>
+      </c>
+      <c r="O59">
+        <v>19988</v>
+      </c>
+      <c r="AH59" s="3"/>
+      <c r="AI59" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ59">
+        <v>13899</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM59">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="60" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>155</v>
+      </c>
+      <c r="J60">
+        <v>9812</v>
+      </c>
+      <c r="N60" t="s">
+        <v>102</v>
+      </c>
+      <c r="O60">
+        <v>20099</v>
+      </c>
+      <c r="AH60" s="3"/>
+      <c r="AI60" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ60">
+        <v>12824</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM60">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="61" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>154</v>
+      </c>
+      <c r="J61">
+        <v>9984</v>
+      </c>
+      <c r="N61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O61">
+        <v>20163</v>
+      </c>
+      <c r="AH61" s="3"/>
+      <c r="AI61" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ61">
+        <v>12824</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM61">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="62" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>153</v>
+      </c>
+      <c r="J62">
+        <v>10090</v>
+      </c>
+      <c r="N62" t="s">
+        <v>100</v>
+      </c>
+      <c r="O62">
+        <v>20451</v>
+      </c>
+      <c r="AH62" s="3"/>
+      <c r="AI62" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ62">
+        <v>12824</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM62">
+        <v>5591</v>
+      </c>
+    </row>
+    <row r="63" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>110</v>
+      </c>
+      <c r="J63">
+        <v>10250</v>
+      </c>
+      <c r="N63" t="s">
+        <v>99</v>
+      </c>
+      <c r="O63">
+        <v>20480</v>
+      </c>
+      <c r="AH63" s="3"/>
+      <c r="AI63" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ63">
+        <v>12824</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM63">
+        <v>5852</v>
+      </c>
+    </row>
+    <row r="64" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>125</v>
+      </c>
+      <c r="J64">
+        <v>10491</v>
+      </c>
+      <c r="N64" t="s">
+        <v>97</v>
+      </c>
+      <c r="O64">
+        <v>20837</v>
+      </c>
+      <c r="AH64" s="3"/>
+      <c r="AI64" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ64">
+        <v>12824</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM64">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="65" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J65">
+        <v>10839</v>
+      </c>
+      <c r="N65" t="s">
+        <v>96</v>
+      </c>
+      <c r="O65">
+        <v>21086</v>
+      </c>
+      <c r="AH65" s="3"/>
+      <c r="AI65" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ65">
+        <v>12824</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM65">
+        <v>6217</v>
+      </c>
+    </row>
+    <row r="66" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>120</v>
+      </c>
+      <c r="J66">
+        <v>11134</v>
+      </c>
+      <c r="N66" t="s">
+        <v>95</v>
+      </c>
+      <c r="O66">
+        <v>22533</v>
+      </c>
+      <c r="AH66" s="3"/>
+      <c r="AI66" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ66">
+        <v>12824</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM66">
+        <v>6329</v>
+      </c>
+    </row>
+    <row r="67" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>108</v>
+      </c>
+      <c r="J67">
+        <v>11153</v>
+      </c>
+      <c r="N67" t="s">
+        <v>94</v>
+      </c>
+      <c r="O67">
+        <v>22562</v>
+      </c>
+      <c r="AH67" s="3"/>
+      <c r="AI67" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ67">
+        <v>12824</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM67">
+        <v>6449</v>
+      </c>
+    </row>
+    <row r="68" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>152</v>
+      </c>
+      <c r="J68">
+        <v>11386</v>
+      </c>
+      <c r="N68" t="s">
+        <v>92</v>
+      </c>
+      <c r="O68">
+        <v>23069</v>
+      </c>
+      <c r="AH68" s="3"/>
+      <c r="AI68" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ68">
+        <v>12824</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM68">
+        <v>6757</v>
+      </c>
+    </row>
+    <row r="69" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>64</v>
+      </c>
+      <c r="J69">
+        <v>11391</v>
+      </c>
+      <c r="N69" t="s">
+        <v>91</v>
+      </c>
+      <c r="O69">
+        <v>23076</v>
+      </c>
+      <c r="AH69" s="3"/>
+      <c r="AI69" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ69">
+        <v>11542</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM69">
+        <v>6918</v>
+      </c>
+    </row>
+    <row r="70" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>151</v>
+      </c>
+      <c r="J70">
+        <v>11579</v>
+      </c>
+      <c r="N70" t="s">
+        <v>109</v>
+      </c>
+      <c r="O70">
+        <v>23183</v>
+      </c>
+      <c r="AH70" s="3"/>
+      <c r="AI70" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ70">
+        <v>11355</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM70">
+        <v>7167</v>
+      </c>
+    </row>
+    <row r="71" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>150</v>
+      </c>
+      <c r="J71">
+        <v>11593</v>
+      </c>
+      <c r="N71" t="s">
+        <v>108</v>
+      </c>
+      <c r="O71">
+        <v>24115</v>
+      </c>
+      <c r="AH71" s="3"/>
+      <c r="AI71" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ71">
+        <v>10738</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM71">
+        <v>7807</v>
+      </c>
+    </row>
+    <row r="72" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>78</v>
+      </c>
+      <c r="J72">
+        <v>12056</v>
+      </c>
+      <c r="N72" t="s">
+        <v>90</v>
+      </c>
+      <c r="O72">
+        <v>24518</v>
+      </c>
+      <c r="AH72" s="3"/>
+      <c r="AI72" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ72">
+        <v>9967</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM72">
+        <v>8086</v>
+      </c>
+    </row>
+    <row r="73" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+      <c r="J73">
+        <v>12344</v>
+      </c>
+      <c r="N73" t="s">
+        <v>88</v>
+      </c>
+      <c r="O73">
+        <v>24800</v>
+      </c>
+      <c r="AH73" s="3"/>
+      <c r="AI73" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ73">
+        <v>9072</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM73">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="74" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>127</v>
+      </c>
+      <c r="J74">
+        <v>12623</v>
+      </c>
+      <c r="N74" t="s">
+        <v>87</v>
+      </c>
+      <c r="O74">
+        <v>25070</v>
+      </c>
+      <c r="AH74" s="3"/>
+      <c r="AI74" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ74">
+        <v>7626</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM74">
+        <v>8096</v>
+      </c>
+    </row>
+    <row r="75" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>61</v>
+      </c>
+      <c r="J75">
+        <v>12715</v>
+      </c>
+      <c r="N75" t="s">
+        <v>142</v>
+      </c>
+      <c r="O75">
+        <v>25866</v>
+      </c>
+      <c r="AH75" s="3"/>
+      <c r="AI75" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ75">
+        <v>7167</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM75">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="76" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>72</v>
+      </c>
+      <c r="J76">
+        <v>12852</v>
+      </c>
+      <c r="N76" t="s">
+        <v>85</v>
+      </c>
+      <c r="O76">
+        <v>27315</v>
+      </c>
+      <c r="AH76" s="3"/>
+      <c r="AI76" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ76">
+        <v>6918</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM76">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="77" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>149</v>
+      </c>
+      <c r="J77">
+        <v>12865</v>
+      </c>
+      <c r="N77" t="s">
+        <v>83</v>
+      </c>
+      <c r="O77">
+        <v>28102</v>
+      </c>
+      <c r="AH77" s="3"/>
+      <c r="AI77" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ77">
+        <v>6757</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM77">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="78" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+      <c r="J78">
+        <v>12962</v>
+      </c>
+      <c r="N78" t="s">
+        <v>81</v>
+      </c>
+      <c r="O78">
+        <v>28625</v>
+      </c>
+      <c r="AH78" s="3"/>
+      <c r="AI78" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ78">
+        <v>6449</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM78">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="79" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>148</v>
+      </c>
+      <c r="J79">
+        <v>13764</v>
+      </c>
+      <c r="N79" t="s">
+        <v>98</v>
+      </c>
+      <c r="O79">
+        <v>29500</v>
+      </c>
+      <c r="AH79" s="3"/>
+      <c r="AI79" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ79">
+        <v>6329</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM79">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="80" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>73</v>
+      </c>
+      <c r="J80">
+        <v>15441</v>
+      </c>
+      <c r="N80" t="s">
+        <v>80</v>
+      </c>
+      <c r="O80">
+        <v>30193</v>
+      </c>
+      <c r="AH80" s="3"/>
+      <c r="AI80" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ80">
+        <v>6217</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM80">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="81" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>147</v>
+      </c>
+      <c r="J81">
+        <v>15476</v>
+      </c>
+      <c r="N81" t="s">
+        <v>79</v>
+      </c>
+      <c r="O81">
+        <v>30458</v>
+      </c>
+      <c r="AH81" s="3"/>
+      <c r="AI81" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ81">
+        <v>6165</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM81">
+        <v>8351</v>
+      </c>
+    </row>
+    <row r="82" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>146</v>
+      </c>
+      <c r="J82">
+        <v>15675</v>
+      </c>
+      <c r="N82" t="s">
+        <v>77</v>
+      </c>
+      <c r="O82">
+        <v>31116</v>
+      </c>
+      <c r="AH82" s="3"/>
+      <c r="AI82" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ82">
+        <v>5958</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM82">
+        <v>8358</v>
+      </c>
+    </row>
+    <row r="83" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>70</v>
+      </c>
+      <c r="J83">
+        <v>16276</v>
+      </c>
+      <c r="N83" t="s">
+        <v>76</v>
+      </c>
+      <c r="O83">
+        <v>31180</v>
+      </c>
+      <c r="AH83" s="3"/>
+      <c r="AI83" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ83">
+        <v>5852</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM83">
+        <v>8358</v>
+      </c>
+    </row>
+    <row r="84" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>63</v>
+      </c>
+      <c r="J84">
+        <v>16555</v>
+      </c>
+      <c r="N84" t="s">
+        <v>75</v>
+      </c>
+      <c r="O84">
+        <v>31655</v>
+      </c>
+      <c r="AH84" s="3"/>
+      <c r="AI84" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ84">
+        <v>5591</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM84">
+        <v>8370</v>
+      </c>
+    </row>
+    <row r="85" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>62</v>
+      </c>
+      <c r="J85">
+        <v>17268</v>
+      </c>
+      <c r="N85" t="s">
+        <v>84</v>
+      </c>
+      <c r="O85">
+        <v>33644</v>
+      </c>
+      <c r="AH85" s="3"/>
+      <c r="AI85" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ85">
+        <v>5561</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM85">
+        <v>8379</v>
+      </c>
+    </row>
+    <row r="86" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>145</v>
+      </c>
+      <c r="J86">
+        <v>17457</v>
+      </c>
+      <c r="N86" t="s">
+        <v>106</v>
+      </c>
+      <c r="O86">
+        <v>40151</v>
+      </c>
+      <c r="AH86" s="3"/>
+      <c r="AI86" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ86">
+        <v>5525</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM86">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="87" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>107</v>
+      </c>
+      <c r="J87">
+        <v>17473</v>
+      </c>
+      <c r="N87" t="s">
+        <v>68</v>
+      </c>
+      <c r="O87">
+        <v>40558</v>
+      </c>
+      <c r="AH87" s="3"/>
+      <c r="AI87" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ87">
+        <v>5426</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM87">
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="88" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>63</v>
+      </c>
+      <c r="J88">
+        <v>18498</v>
+      </c>
+      <c r="N88" t="s">
+        <v>74</v>
+      </c>
+      <c r="O88">
+        <v>41041</v>
+      </c>
+      <c r="AH88" s="3"/>
+      <c r="AI88" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ88">
+        <v>5338</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM88">
+        <v>8398</v>
+      </c>
+    </row>
+    <row r="89" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>106</v>
+      </c>
+      <c r="J89">
+        <v>19123</v>
+      </c>
+      <c r="N89" t="s">
+        <v>86</v>
+      </c>
+      <c r="O89">
+        <v>41737</v>
+      </c>
+      <c r="AH89" s="3"/>
+      <c r="AI89" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ89">
+        <v>5102</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM89">
+        <v>8398</v>
+      </c>
+    </row>
+    <row r="90" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>144</v>
+      </c>
+      <c r="J90">
+        <v>19456</v>
+      </c>
+      <c r="N90" t="s">
+        <v>89</v>
+      </c>
+      <c r="O90">
+        <v>41997</v>
+      </c>
+      <c r="AH90" s="3"/>
+      <c r="AI90" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ90">
+        <v>5013</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM90">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="91" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>143</v>
+      </c>
+      <c r="J91">
+        <v>19512</v>
+      </c>
+      <c r="N91" t="s">
+        <v>78</v>
+      </c>
+      <c r="O91">
+        <v>48365</v>
+      </c>
+      <c r="AH91" s="3"/>
+      <c r="AI91" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ91">
+        <v>4979</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM91">
+        <v>8402</v>
+      </c>
+    </row>
+    <row r="92" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>105</v>
+      </c>
+      <c r="J92">
+        <v>19560</v>
+      </c>
+      <c r="N92" t="s">
+        <v>107</v>
+      </c>
+      <c r="O92">
+        <v>53135</v>
+      </c>
+      <c r="AH92" s="3"/>
+      <c r="AI92" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ92">
+        <v>4930</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM92">
+        <v>8404</v>
+      </c>
+    </row>
+    <row r="93" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>104</v>
+      </c>
+      <c r="J93">
+        <v>19822</v>
+      </c>
+      <c r="N93" t="s">
+        <v>65</v>
+      </c>
+      <c r="O93">
+        <v>54540</v>
+      </c>
+      <c r="AH93" s="3"/>
+      <c r="AI93" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ93">
+        <v>4930</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM93">
+        <v>8437</v>
+      </c>
+    </row>
+    <row r="94" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>59</v>
+      </c>
+      <c r="J94">
+        <v>19949</v>
+      </c>
+      <c r="N94" t="s">
+        <v>72</v>
+      </c>
+      <c r="O94">
+        <v>54818</v>
+      </c>
+      <c r="AH94" s="3"/>
+      <c r="AI94" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ94">
+        <v>4930</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM94">
+        <v>8445</v>
+      </c>
+    </row>
+    <row r="95" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J95">
+        <v>19966</v>
+      </c>
+      <c r="N95" t="s">
+        <v>70</v>
+      </c>
+      <c r="O95">
+        <v>61456</v>
+      </c>
+      <c r="AH95" s="3"/>
+      <c r="AI95" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ95">
+        <v>4930</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM95">
+        <v>8447</v>
+      </c>
+    </row>
+    <row r="96" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>102</v>
+      </c>
+      <c r="J96">
+        <v>20099</v>
+      </c>
+      <c r="N96" t="s">
+        <v>64</v>
+      </c>
+      <c r="O96">
+        <v>62626</v>
+      </c>
+      <c r="AH96" s="3"/>
+      <c r="AI96" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ96">
+        <v>4930</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM96">
+        <v>8448</v>
+      </c>
+    </row>
+    <row r="97" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>101</v>
+      </c>
+      <c r="J97">
+        <v>20163</v>
+      </c>
+      <c r="N97" t="s">
+        <v>146</v>
+      </c>
+      <c r="O97">
+        <v>69386</v>
+      </c>
+      <c r="AH97" s="3"/>
+      <c r="AI97" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ97">
+        <v>4930</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM97">
+        <v>8448</v>
+      </c>
+    </row>
+    <row r="98" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>100</v>
+      </c>
+      <c r="J98">
+        <v>20451</v>
+      </c>
+      <c r="N98" t="s">
+        <v>92</v>
+      </c>
+      <c r="O98">
+        <v>73698</v>
+      </c>
+      <c r="AH98" s="3"/>
+      <c r="AI98" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ98">
+        <v>4930</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM98">
+        <v>8452</v>
+      </c>
+    </row>
+    <row r="99" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>99</v>
+      </c>
+      <c r="J99">
+        <v>20480</v>
+      </c>
+      <c r="N99" t="s">
+        <v>67</v>
+      </c>
+      <c r="O99">
+        <v>82525</v>
+      </c>
+      <c r="AH99" s="3"/>
+      <c r="AI99" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ99">
+        <v>4930</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM99">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="100" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>98</v>
+      </c>
+      <c r="J100">
+        <v>20789</v>
+      </c>
+      <c r="N100" t="s">
+        <v>61</v>
+      </c>
+      <c r="O100">
+        <v>84996</v>
+      </c>
+      <c r="AH100" s="3"/>
+      <c r="AI100" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ100">
+        <v>4930</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM100">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="101" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>97</v>
+      </c>
+      <c r="J101">
+        <v>20837</v>
+      </c>
+      <c r="N101" t="s">
+        <v>58</v>
+      </c>
+      <c r="O101">
+        <v>86215</v>
+      </c>
+      <c r="AH101" s="3"/>
+      <c r="AI101" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ101">
+        <v>4930</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM101">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="102" spans="9:39" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>66</v>
+      </c>
+      <c r="J102">
+        <v>20994</v>
+      </c>
+      <c r="N102" t="s">
+        <v>63</v>
+      </c>
+      <c r="O102">
+        <v>92479</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ102">
+        <v>103632</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM102">
+        <v>8746</v>
+      </c>
+    </row>
+    <row r="103" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>106</v>
+      </c>
+      <c r="J103">
+        <v>21028</v>
+      </c>
+      <c r="N103" t="s">
+        <v>93</v>
+      </c>
+      <c r="O103">
+        <v>110581</v>
+      </c>
+      <c r="AH103" s="3"/>
+      <c r="AI103" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ103">
+        <v>56197</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM103">
+        <v>8777</v>
+      </c>
+    </row>
+    <row r="104" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>96</v>
+      </c>
+      <c r="J104">
+        <v>21086</v>
+      </c>
+      <c r="N104" t="s">
+        <v>62</v>
+      </c>
+      <c r="O104">
+        <v>117245</v>
+      </c>
+      <c r="AH104" s="3"/>
+      <c r="AI104" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ104">
+        <v>41825</v>
+      </c>
+      <c r="AL104" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM104">
+        <v>9072</v>
+      </c>
+    </row>
+    <row r="105" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>95</v>
+      </c>
+      <c r="J105">
+        <v>22533</v>
+      </c>
+      <c r="N105" t="s">
+        <v>147</v>
+      </c>
+      <c r="O105">
+        <v>154760</v>
+      </c>
+      <c r="AH105" s="3"/>
+      <c r="AI105" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ105">
+        <v>26603</v>
+      </c>
+      <c r="AL105" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM105">
+        <v>9286</v>
+      </c>
+    </row>
+    <row r="106" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>94</v>
+      </c>
+      <c r="J106">
+        <v>22562</v>
+      </c>
+      <c r="N106" t="s">
+        <v>57</v>
+      </c>
+      <c r="O106">
+        <v>200048</v>
+      </c>
+      <c r="AH106" s="3"/>
+      <c r="AI106" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ106">
+        <v>25827</v>
+      </c>
+      <c r="AL106" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM106">
+        <v>9506</v>
+      </c>
+    </row>
+    <row r="107" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>93</v>
+      </c>
+      <c r="J107">
+        <v>22819</v>
+      </c>
+      <c r="N107" t="s">
+        <v>60</v>
+      </c>
+      <c r="O107">
+        <v>241221</v>
+      </c>
+      <c r="AH107" s="3"/>
+      <c r="AI107" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ107">
+        <v>22718</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM107">
+        <v>9523</v>
+      </c>
+    </row>
+    <row r="108" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>92</v>
+      </c>
+      <c r="J108">
+        <v>23069</v>
+      </c>
+      <c r="N108" t="s">
+        <v>166</v>
+      </c>
+      <c r="O108">
+        <v>256834</v>
+      </c>
+      <c r="AH108" s="3"/>
+      <c r="AI108" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ108">
+        <v>21025</v>
+      </c>
+      <c r="AL108" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM108">
+        <v>9819</v>
+      </c>
+    </row>
+    <row r="109" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>91</v>
+      </c>
+      <c r="J109">
+        <v>23076</v>
+      </c>
+      <c r="N109" t="s">
+        <v>82</v>
+      </c>
+      <c r="O109">
+        <v>274640</v>
+      </c>
+      <c r="AH109" s="3"/>
+      <c r="AI109" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ109">
+        <v>19728</v>
+      </c>
+      <c r="AL109" t="s">
+        <v>270</v>
+      </c>
+      <c r="AM109">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="110" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>90</v>
+      </c>
+      <c r="J110">
+        <v>24518</v>
+      </c>
+      <c r="N110" t="s">
+        <v>69</v>
+      </c>
+      <c r="O110">
+        <v>288900</v>
+      </c>
+      <c r="AH110" s="3"/>
+      <c r="AI110" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ110">
+        <v>13954</v>
+      </c>
+      <c r="AL110" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM110">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="111" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>60</v>
+      </c>
+      <c r="J111">
+        <v>24634</v>
+      </c>
+      <c r="N111" t="s">
+        <v>59</v>
+      </c>
+      <c r="O111">
+        <v>295780</v>
+      </c>
+      <c r="AH111" s="3"/>
+      <c r="AI111" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ111">
+        <v>13125</v>
+      </c>
+      <c r="AL111" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM111">
+        <v>10738</v>
+      </c>
+    </row>
+    <row r="112" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>89</v>
+      </c>
+      <c r="J112">
+        <v>24772</v>
+      </c>
+      <c r="AH112" s="3"/>
+      <c r="AI112" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ112">
+        <v>10270</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM112">
+        <v>12168</v>
+      </c>
+    </row>
+    <row r="113" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>88</v>
+      </c>
+      <c r="J113">
+        <v>24800</v>
+      </c>
+      <c r="AH113" s="3"/>
+      <c r="AI113" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ113">
+        <v>10020</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM113">
+        <v>12824</v>
+      </c>
+    </row>
+    <row r="114" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>93</v>
+      </c>
+      <c r="J114">
+        <v>25048</v>
+      </c>
+      <c r="AH114" s="3"/>
+      <c r="AI114" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ114">
+        <v>10007</v>
+      </c>
+      <c r="AL114" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM114">
+        <v>12824</v>
+      </c>
+    </row>
+    <row r="115" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>87</v>
+      </c>
+      <c r="J115">
+        <v>25070</v>
+      </c>
+      <c r="AH115" s="3"/>
+      <c r="AI115" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ115">
+        <v>9819</v>
+      </c>
+      <c r="AL115" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM115">
+        <v>12824</v>
+      </c>
+    </row>
+    <row r="116" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>142</v>
+      </c>
+      <c r="J116">
+        <v>25866</v>
+      </c>
+      <c r="AH116" s="3"/>
+      <c r="AI116" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ116">
+        <v>9523</v>
+      </c>
+      <c r="AL116" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM116">
+        <v>12824</v>
+      </c>
+    </row>
+    <row r="117" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>86</v>
+      </c>
+      <c r="J117">
+        <v>27058</v>
+      </c>
+      <c r="AH117" s="3"/>
+      <c r="AI117" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ117">
+        <v>9506</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM117">
+        <v>12824</v>
+      </c>
+    </row>
+    <row r="118" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>85</v>
+      </c>
+      <c r="J118">
+        <v>27315</v>
+      </c>
+      <c r="AH118" s="3"/>
+      <c r="AI118" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ118">
+        <v>8777</v>
+      </c>
+      <c r="AL118" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM118">
+        <v>12824</v>
+      </c>
+    </row>
+    <row r="119" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>84</v>
+      </c>
+      <c r="J119">
+        <v>27550</v>
+      </c>
+      <c r="AH119" s="3"/>
+      <c r="AI119" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ119">
+        <v>8746</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM119">
+        <v>12824</v>
+      </c>
+    </row>
+    <row r="120" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I120" t="s">
+        <v>83</v>
+      </c>
+      <c r="J120">
+        <v>28102</v>
+      </c>
+      <c r="AH120" s="3"/>
+      <c r="AI120" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ120">
+        <v>8627</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM120">
+        <v>12824</v>
+      </c>
+    </row>
+    <row r="121" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>82</v>
+      </c>
+      <c r="J121">
+        <v>28212</v>
+      </c>
+      <c r="AH121" s="3"/>
+      <c r="AI121" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ121">
+        <v>8525</v>
+      </c>
+      <c r="AL121" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM121">
+        <v>12824</v>
+      </c>
+    </row>
+    <row r="122" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>81</v>
+      </c>
+      <c r="J122">
+        <v>28625</v>
+      </c>
+      <c r="AH122" s="3"/>
+      <c r="AI122" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ122">
+        <v>8470</v>
+      </c>
+      <c r="AL122" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM122">
+        <v>43212</v>
+      </c>
+    </row>
+    <row r="123" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>80</v>
+      </c>
+      <c r="J123">
+        <v>30193</v>
+      </c>
+      <c r="AH123" s="3"/>
+      <c r="AI123" t="s">
+        <v>278</v>
+      </c>
+      <c r="AJ123">
+        <v>8470</v>
+      </c>
+      <c r="AL123" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM123">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="124" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I124" t="s">
+        <v>79</v>
+      </c>
+      <c r="J124">
+        <v>30458</v>
+      </c>
+      <c r="AH124" s="3"/>
+      <c r="AI124" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ124">
+        <v>8452</v>
+      </c>
+      <c r="AL124" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM124">
+        <v>44060</v>
+      </c>
+    </row>
+    <row r="125" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I125" t="s">
+        <v>78</v>
+      </c>
+      <c r="J125">
+        <v>30906</v>
+      </c>
+      <c r="AH125" s="3"/>
+      <c r="AI125" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ125">
+        <v>8448</v>
+      </c>
+      <c r="AL125" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM125">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="126" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I126" t="s">
+        <v>77</v>
+      </c>
+      <c r="J126">
+        <v>31116</v>
+      </c>
+      <c r="AH126" s="3"/>
+      <c r="AI126" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ126">
+        <v>8448</v>
+      </c>
+      <c r="AL126" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM126">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="127" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I127" t="s">
+        <v>76</v>
+      </c>
+      <c r="J127">
+        <v>31180</v>
+      </c>
+      <c r="AH127" s="3"/>
+      <c r="AI127" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ127">
+        <v>8447</v>
+      </c>
+      <c r="AL127" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM127">
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="128" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I128" t="s">
+        <v>75</v>
+      </c>
+      <c r="J128">
+        <v>31655</v>
+      </c>
+      <c r="AH128" s="3"/>
+      <c r="AI128" t="s">
+        <v>283</v>
+      </c>
+      <c r="AJ128">
+        <v>8445</v>
+      </c>
+      <c r="AL128" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM128">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="129" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I129" t="s">
+        <v>74</v>
+      </c>
+      <c r="J129">
+        <v>31703</v>
+      </c>
+      <c r="AH129" s="3"/>
+      <c r="AI129" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ129">
+        <v>8437</v>
+      </c>
+      <c r="AL129" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM129">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="130" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I130" t="s">
+        <v>73</v>
+      </c>
+      <c r="J130">
+        <v>32533</v>
+      </c>
+      <c r="AH130" s="3"/>
+      <c r="AI130" t="s">
+        <v>285</v>
+      </c>
+      <c r="AJ130">
+        <v>8404</v>
+      </c>
+      <c r="AL130" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM130">
+        <v>50237</v>
+      </c>
+    </row>
+    <row r="131" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I131" t="s">
+        <v>72</v>
+      </c>
+      <c r="J131">
+        <v>32824</v>
+      </c>
+      <c r="AH131" s="3"/>
+      <c r="AI131" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ131">
+        <v>8402</v>
+      </c>
+      <c r="AL131" t="s">
+        <v>270</v>
+      </c>
+      <c r="AM131">
+        <v>50876</v>
+      </c>
+    </row>
+    <row r="132" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I132" t="s">
+        <v>67</v>
+      </c>
+      <c r="J132">
+        <v>33405</v>
+      </c>
+      <c r="AH132" s="3"/>
+      <c r="AI132" t="s">
+        <v>287</v>
+      </c>
+      <c r="AJ132">
+        <v>8400</v>
+      </c>
+      <c r="AL132" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM132">
+        <v>51025</v>
+      </c>
+    </row>
+    <row r="133" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I133" t="s">
+        <v>107</v>
+      </c>
+      <c r="J133">
+        <v>35662</v>
+      </c>
+      <c r="AH133" s="3"/>
+      <c r="AI133" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ133">
+        <v>8398</v>
+      </c>
+      <c r="AL133" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM133">
+        <v>51580</v>
+      </c>
+    </row>
+    <row r="134" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I134" t="s">
+        <v>71</v>
+      </c>
+      <c r="J134">
+        <v>36264</v>
+      </c>
+      <c r="AH134" s="3"/>
+      <c r="AI134" t="s">
+        <v>289</v>
+      </c>
+      <c r="AJ134">
+        <v>8398</v>
+      </c>
+      <c r="AL134" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM134">
+        <v>56603</v>
+      </c>
+    </row>
+    <row r="135" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I135" t="s">
+        <v>71</v>
+      </c>
+      <c r="J135">
+        <v>37434</v>
+      </c>
+      <c r="AH135" s="3"/>
+      <c r="AI135" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ135">
+        <v>8392</v>
+      </c>
+      <c r="AL135" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM135">
+        <v>59758</v>
+      </c>
+    </row>
+    <row r="136" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I136" t="s">
+        <v>70</v>
+      </c>
+      <c r="J136">
+        <v>37672</v>
+      </c>
+      <c r="AH136" s="3"/>
+      <c r="AI136" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ136">
+        <v>8390</v>
+      </c>
+      <c r="AL136" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM136">
+        <v>62718</v>
+      </c>
+    </row>
+    <row r="137" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I137" t="s">
+        <v>69</v>
+      </c>
+      <c r="J137">
+        <v>38890</v>
+      </c>
+      <c r="AH137" s="3"/>
+      <c r="AI137" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ137">
+        <v>8379</v>
+      </c>
+      <c r="AL137" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM137">
+        <v>71825</v>
+      </c>
+    </row>
+    <row r="138" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I138" t="s">
+        <v>68</v>
+      </c>
+      <c r="J138">
+        <v>40558</v>
+      </c>
+      <c r="AH138" s="3"/>
+      <c r="AI138" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ138">
+        <v>8370</v>
+      </c>
+      <c r="AL138" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM138">
+        <v>74061</v>
+      </c>
+    </row>
+    <row r="139" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I139" t="s">
+        <v>67</v>
+      </c>
+      <c r="J139">
+        <v>40677</v>
+      </c>
+      <c r="AH139" s="3"/>
+      <c r="AI139" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ139">
+        <v>8358</v>
+      </c>
+      <c r="AL139" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM139">
+        <v>76197</v>
+      </c>
+    </row>
+    <row r="140" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I140" t="s">
+        <v>66</v>
+      </c>
+      <c r="J140">
+        <v>42062</v>
+      </c>
+      <c r="AH140" s="3"/>
+      <c r="AI140" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ140">
+        <v>8358</v>
+      </c>
+      <c r="AL140" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM140">
+        <v>131270</v>
+      </c>
+    </row>
+    <row r="141" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I141" t="s">
+        <v>65</v>
+      </c>
+      <c r="J141">
+        <v>45094</v>
+      </c>
+      <c r="AH141" s="3"/>
+      <c r="AI141" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ141">
+        <v>8351</v>
+      </c>
+      <c r="AL141" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM141">
+        <v>171406</v>
+      </c>
+    </row>
+    <row r="142" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I142" t="s">
+        <v>64</v>
+      </c>
+      <c r="J142">
+        <v>51235</v>
+      </c>
+      <c r="AH142" s="3"/>
+      <c r="AI142" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ142">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="143" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I143" t="s">
+        <v>63</v>
+      </c>
+      <c r="J143">
+        <v>57426</v>
+      </c>
+      <c r="AH143" s="3"/>
+      <c r="AI143" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ143">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="144" spans="9:39" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I144" t="s">
+        <v>62</v>
+      </c>
+      <c r="J144">
+        <v>58529</v>
+      </c>
+      <c r="AH144" s="3"/>
+      <c r="AI144" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ144">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="145" spans="9:36" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I145" t="s">
+        <v>93</v>
+      </c>
+      <c r="J145">
+        <v>62714</v>
+      </c>
+      <c r="AH145" s="3"/>
+      <c r="AI145" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ145">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="146" spans="9:36" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I146" t="s">
+        <v>59</v>
+      </c>
+      <c r="J146">
+        <v>64577</v>
+      </c>
+      <c r="AH146" s="3"/>
+      <c r="AI146" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ146">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="147" spans="9:36" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I147" t="s">
+        <v>61</v>
+      </c>
+      <c r="J147">
+        <v>72281</v>
+      </c>
+      <c r="AH147" s="3"/>
+      <c r="AI147" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ147">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="148" spans="9:36" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I148" t="s">
+        <v>60</v>
+      </c>
+      <c r="J148">
+        <v>79938</v>
+      </c>
+      <c r="AH148" s="3"/>
+      <c r="AI148" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ148">
+        <v>8096</v>
+      </c>
+    </row>
+    <row r="149" spans="9:36" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I149" t="s">
+        <v>59</v>
+      </c>
+      <c r="J149">
+        <v>85254</v>
+      </c>
+      <c r="AH149" s="3"/>
+      <c r="AI149" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ149">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="150" spans="9:36" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I150" t="s">
+        <v>58</v>
+      </c>
+      <c r="J150">
+        <v>86215</v>
+      </c>
+      <c r="AH150" s="3"/>
+      <c r="AI150" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ150">
+        <v>8086</v>
+      </c>
+    </row>
+    <row r="151" spans="9:36" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I151" t="s">
+        <v>57</v>
+      </c>
+      <c r="J151">
+        <v>200048</v>
+      </c>
+      <c r="AH151" s="3"/>
+      <c r="AI151" t="s">
+        <v>306</v>
+      </c>
+      <c r="AJ151">
+        <v>7807</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AL2:AM161">
+    <sortCondition ref="AM2:AM161"/>
+  </sortState>
+  <dataConsolidate leftLabels="1">
+    <dataRefs count="1">
+      <dataRef ref="AI2:AJ151" sheet="N-grams"/>
+    </dataRefs>
+  </dataConsolidate>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/data_viz.xlsx
+++ b/data_viz.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fashaikh\Desktop\Thesis_main\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BBC7E2-0489-445F-BF86-9BB701AF0399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D0A733-0261-4416-83E4-F70B7A1FF9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" activeTab="2" xr2:uid="{01E76D5E-2B43-456A-A89C-D3148656B865}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="17235" activeTab="3" xr2:uid="{01E76D5E-2B43-456A-A89C-D3148656B865}"/>
   </bookViews>
   <sheets>
     <sheet name="Sentiment" sheetId="1" r:id="rId1"/>
     <sheet name="Emotion" sheetId="2" r:id="rId2"/>
     <sheet name="N-grams" sheetId="3" r:id="rId3"/>
+    <sheet name="Topic Modeling" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="325">
   <si>
     <t>Negative</t>
   </si>
@@ -959,6 +960,60 @@
   </si>
   <si>
     <t>national anthem wear</t>
+  </si>
+  <si>
+    <t>floyds funeral</t>
+  </si>
+  <si>
+    <t>floyd funeral</t>
+  </si>
+  <si>
+    <t>floyd blacklivesmatter</t>
+  </si>
+  <si>
+    <t>floyds death</t>
+  </si>
+  <si>
+    <t>floyds memorial</t>
+  </si>
+  <si>
+    <t>Topic 1</t>
+  </si>
+  <si>
+    <t>Topic 2</t>
+  </si>
+  <si>
+    <t>opression black</t>
+  </si>
+  <si>
+    <t>black assaulted</t>
+  </si>
+  <si>
+    <t>lie blacks</t>
+  </si>
+  <si>
+    <t>blacks hunted</t>
+  </si>
+  <si>
+    <t>systemic opression</t>
+  </si>
+  <si>
+    <t>Topic 3</t>
+  </si>
+  <si>
+    <t>outrage blm</t>
+  </si>
+  <si>
+    <t>black trump</t>
+  </si>
+  <si>
+    <t>al blm</t>
+  </si>
+  <si>
+    <t>sharpton racist</t>
+  </si>
+  <si>
+    <t>blm jesse</t>
   </si>
 </sst>
 </file>
@@ -1008,12 +1063,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4452,6 +4510,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2BC4-4704-8E53-C2A5410E240C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4485,6 +4548,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2BC4-4704-8E53-C2A5410E240C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -4499,6 +4567,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2BC4-4704-8E53-C2A5410E240C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -4513,6 +4586,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2BC4-4704-8E53-C2A5410E240C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -4527,6 +4605,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2BC4-4704-8E53-C2A5410E240C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -4541,6 +4624,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2BC4-4704-8E53-C2A5410E240C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -4555,6 +4643,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-2BC4-4704-8E53-C2A5410E240C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4992,6 +5085,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6A5A-4B19-9AE4-DC78C1839789}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -5025,6 +5123,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6A5A-4B19-9AE4-DC78C1839789}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -5039,6 +5142,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6A5A-4B19-9AE4-DC78C1839789}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -5072,6 +5180,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-6A5A-4B19-9AE4-DC78C1839789}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -5086,6 +5199,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-6A5A-4B19-9AE4-DC78C1839789}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -5387,6 +5505,422 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Topic 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Topic Modeling'!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Topic 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Topic Modeling'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>floyds memorial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>floyds death</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>floyd blacklivesmatter</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>floyd funeral</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>floyds funeral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Topic Modeling'!$C$9:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.56483260000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57191780000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59689780000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6132071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62550050000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B724-48F7-A354-CB40148115F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Topic Modeling'!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Topic Modeling'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>floyds memorial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>floyds death</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>floyd blacklivesmatter</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>floyd funeral</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>floyds funeral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Topic Modeling'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.43516739999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42808219999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40310219999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3867929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37449949999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B724-48F7-A354-CB40148115F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="41"/>
+        <c:overlap val="100"/>
+        <c:axId val="825225080"/>
+        <c:axId val="825224096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="825225080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825224096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="825224096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825225080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5680,6 +6214,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -8217,6 +8791,511 @@
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8943,6 +10022,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CE0AE2-72BA-C5C2-2713-499BE233FF86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10323,7 +11443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061A16EF-80B8-4C4C-A4FF-02D0D991B409}">
   <dimension ref="C2:AM151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N46" workbookViewId="0">
+    <sheetView topLeftCell="N46" workbookViewId="0">
       <selection activeCell="AC95" sqref="AC95"/>
     </sheetView>
   </sheetViews>
@@ -14133,7 +15253,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AL2:AM161">
     <sortCondition ref="AM2:AM161"/>
   </sortState>
-  <dataConsolidate leftLabels="1">
+  <dataConsolidate>
     <dataRefs count="1">
       <dataRef ref="AI2:AJ151" sheet="N-grams"/>
     </dataRefs>
@@ -14142,4 +15262,266 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D94A99-7D7B-4B93-BBCC-7BB415E48CFE}">
+  <dimension ref="B1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2">
+        <v>0.62550050000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2">
+        <v>0.51226000000000005</v>
+      </c>
+      <c r="F2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2">
+        <v>0.51736090000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3">
+        <v>0.6132071</v>
+      </c>
+      <c r="D3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3">
+        <v>0.5109669</v>
+      </c>
+      <c r="F3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3">
+        <v>0.48423640000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4">
+        <v>0.59689780000000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4">
+        <v>0.49594359999999998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4">
+        <v>0.47114089999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5">
+        <v>0.57191780000000003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5">
+        <v>0.49097249999999998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5">
+        <v>0.4510306</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6">
+        <v>0.56483260000000002</v>
+      </c>
+      <c r="D6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6">
+        <v>0.43325659999999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G6">
+        <v>0.41682170000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9">
+        <v>0.56483260000000002</v>
+      </c>
+      <c r="D9">
+        <f>1-C9</f>
+        <v>0.43516739999999998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9">
+        <v>0.51226000000000005</v>
+      </c>
+      <c r="G9">
+        <f>1-F9</f>
+        <v>0.48773999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10">
+        <v>0.57191780000000003</v>
+      </c>
+      <c r="D10">
+        <f>1-C10</f>
+        <v>0.42808219999999997</v>
+      </c>
+      <c r="E10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10">
+        <v>0.5109669</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G13" si="0">1-F10</f>
+        <v>0.4890331</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11">
+        <v>0.59689780000000003</v>
+      </c>
+      <c r="D11">
+        <f>1-C11</f>
+        <v>0.40310219999999997</v>
+      </c>
+      <c r="E11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11">
+        <v>0.49594359999999998</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.50405640000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12">
+        <v>0.6132071</v>
+      </c>
+      <c r="D12">
+        <f>1-C12</f>
+        <v>0.3867929</v>
+      </c>
+      <c r="E12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12">
+        <v>0.49097249999999998</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.50902749999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13">
+        <v>0.62550050000000001</v>
+      </c>
+      <c r="D13">
+        <f>1-C13</f>
+        <v>0.37449949999999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13">
+        <v>0.43325659999999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.56674340000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:D13">
+    <sortCondition ref="C9:C13"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/data_viz.xlsx
+++ b/data_viz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fashaikh\Desktop\Thesis_main\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D0A733-0261-4416-83E4-F70B7A1FF9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B70468-1844-41E5-A0BF-F79AE5526EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="17235" activeTab="3" xr2:uid="{01E76D5E-2B43-456A-A89C-D3148656B865}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" xr2:uid="{01E76D5E-2B43-456A-A89C-D3148656B865}"/>
   </bookViews>
   <sheets>
     <sheet name="Sentiment" sheetId="1" r:id="rId1"/>
@@ -1083,9 +1083,9 @@
   <colors>
     <mruColors>
       <color rgb="FFEE7733"/>
+      <color rgb="FF4477AA"/>
       <color rgb="FFBBBBBB"/>
       <color rgb="FFCCBB44"/>
-      <color rgb="FF4477AA"/>
       <color rgb="FFAA3377"/>
       <color rgb="FFEE6677"/>
       <color rgb="FF228833"/>
@@ -2938,6 +2938,685 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sentiment!$C$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Negative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4477AA"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sentiment!$B$53:$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>African American South</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aging Farmlands</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Big Cities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>College Towns</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Evangelical Hubs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Exurbs</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Graying America</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hispanic Centers</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LDS Enclaves</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Middle Suburbs</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Military Posts</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Native American Lands</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Rural Middle America</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Urban Suburbs</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Working Class Country</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sentiment!$C$53:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.63675727086099998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59510415082900003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57908474936200005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65234729686600001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69520064959999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59556716742899996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64724031539299998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67958801808199998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43195876288699997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6885371850030001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.616336105779</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53219730941700005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70362123052900005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.592779550755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74933494780499998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B19-4540-AE09-2C91762BB885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sentiment!$D$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EE7733"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sentiment!$B$53:$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>African American South</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aging Farmlands</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Big Cities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>College Towns</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Evangelical Hubs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Exurbs</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Graying America</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hispanic Centers</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LDS Enclaves</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Middle Suburbs</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Military Posts</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Native American Lands</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Rural Middle America</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Urban Suburbs</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Working Class Country</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sentiment!$D$53:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.25989888371600001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3009477472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25258669148099999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24414096051400003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.223691895665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25765730459399999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23236045750599998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22720272888299997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46666666666700002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19926436693300001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.285135423331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32860986547099996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19937258599700003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25334478949299999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16474948171800002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B19-4540-AE09-2C91762BB885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sentiment!$E$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sentiment!$B$53:$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>African American South</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aging Farmlands</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Big Cities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>College Towns</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Evangelical Hubs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Exurbs</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Graying America</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hispanic Centers</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LDS Enclaves</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Middle Suburbs</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Military Posts</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Native American Lands</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Rural Middle America</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Urban Suburbs</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Working Class Country</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sentiment!$E$53:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.10334384542200001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.103948101972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16832855915700001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10351174261900001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1107454735000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.146775527977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12039922710100001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3209253033999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10137457044699999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11219844806399999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8528470889000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13919282511200001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.700618347300001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15387565975199999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5915570477000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B19-4540-AE09-2C91762BB885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="762538584"/>
+        <c:axId val="762535344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="762538584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="762535344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="762535344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="762538584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="percentStacked"/>
@@ -4463,7 +5142,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5000,7 +5679,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5558,7 +6237,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6254,6 +6933,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -7780,7 +8499,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7984,6 +8703,509 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -8284,7 +9506,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8789,7 +10011,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9294,7 +10516,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9875,16 +11097,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243939</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>21895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>472538</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>50470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9904,6 +11126,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>534722</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>466327</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1067ED18-FBD7-9341-8078-42042A28213D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10370,8 +11628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D215A961-603E-46D6-9BC8-D099EEC7FABA}">
   <dimension ref="A3:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="Q32" zoomScale="96" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AV36" sqref="AV36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15268,7 +16526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D94A99-7D7B-4B93-BBCC-7BB415E48CFE}">
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
